--- a/parameter/template.xlsx
+++ b/parameter/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Coding\Project\deploy_scb\parameter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193F0845-BB05-4421-A9A0-F29591E0D0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AB67DF-54B6-4C0B-B5E9-8F2D345D2692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1013,8 +1013,8 @@
   <dimension ref="A1:D787"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/parameter/template.xlsx
+++ b/parameter/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Coding\Project\deploy_scb\parameter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AB67DF-54B6-4C0B-B5E9-8F2D345D2692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3CFBAC-966B-4A8D-A958-23F8151EC87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="199">
   <si>
     <t>LIST</t>
   </si>
@@ -583,6 +584,57 @@
   </si>
   <si>
     <t>GROUP_JOB_NAME</t>
+  </si>
+  <si>
+    <t>P1VEUATM.VATM_PAYROLL_ACCT</t>
+  </si>
+  <si>
+    <t>P1VEUTMS.VTMS_IRORSCG_D</t>
+  </si>
+  <si>
+    <t>P1VTXEDW.VESL_T3_PARTY_TELEPHONE</t>
+  </si>
+  <si>
+    <t>P1VEUPRM.TVPRM_CD_FES</t>
+  </si>
+  <si>
+    <t>P1VEUPRM.TVPRM_CD_ENET</t>
+  </si>
+  <si>
+    <t>P1VSGMF.ST_STACTM_2_0</t>
+  </si>
+  <si>
+    <t>P1VTXEDW.VRBF_SDL20_PTPA_01</t>
+  </si>
+  <si>
+    <t>P1VSGMF.GN_MTLOG_1_0</t>
+  </si>
+  <si>
+    <t>P1VTXEDW.VUL_QUOTATIONACCT_01</t>
+  </si>
+  <si>
+    <t>ST_SRC_Daily</t>
+  </si>
+  <si>
+    <t>RBF_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>LEAD_UL_SRC_Daily</t>
+  </si>
+  <si>
+    <t>P1VEUOBR.VOBR_AMMSAC01</t>
+  </si>
+  <si>
+    <t>OBR_DSF_Daily</t>
+  </si>
+  <si>
+    <t>P1VEUOBR.VOBR_IXQDWFEV</t>
+  </si>
+  <si>
+    <t>P1VEULQ.VLQ_08_GL_BAL_SUM_OC_D</t>
+  </si>
+  <si>
+    <t>P1VEULQ.VLQ_07_GL_BAL_SUM_RC_D</t>
   </si>
 </sst>
 </file>
@@ -1012,9 +1064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D787"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J82" sqref="J82"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3365,66 +3417,135 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -3464,6 +3585,7 @@
       <c r="A28" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{73062F12-452F-490B-8A18-5A814C29F95A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/parameter/template.xlsx
+++ b/parameter/template.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Coding\Project\deploy_scb\parameter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3CFBAC-966B-4A8D-A958-23F8151EC87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BD70CD-41BE-49B4-BED3-5A4BBB22A4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="all" sheetId="1" r:id="rId1"/>
+    <sheet name="ddl" sheetId="2" r:id="rId2"/>
+    <sheet name="period" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$118</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$D$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ddl!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">period!$A$1:$B$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="240">
   <si>
     <t>LIST</t>
   </si>
@@ -635,13 +637,136 @@
   </si>
   <si>
     <t>P1VEULQ.VLQ_07_GL_BAL_SUM_RC_D</t>
+  </si>
+  <si>
+    <t>5DSF</t>
+  </si>
+  <si>
+    <t>5DSF_DSF_DAILY</t>
+  </si>
+  <si>
+    <t>IMEXI</t>
+  </si>
+  <si>
+    <t>IMEX_SRC_Daily</t>
+  </si>
+  <si>
+    <t>FES_DSF_Daily</t>
+  </si>
+  <si>
+    <t>BI_DSF_TAX_Monthly</t>
+  </si>
+  <si>
+    <t>CSL</t>
+  </si>
+  <si>
+    <t>CSL_DSF_DAILY</t>
+  </si>
+  <si>
+    <t>CCB_DSF_AML_PER</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>SL_DSF_Daily</t>
+  </si>
+  <si>
+    <t>CAL</t>
+  </si>
+  <si>
+    <t>CAL_D_MONTHLY</t>
+  </si>
+  <si>
+    <t>IMEX</t>
+  </si>
+  <si>
+    <t>AML_DSF_Daily3</t>
+  </si>
+  <si>
+    <t>CB_DSF_MONTHLY2</t>
+  </si>
+  <si>
+    <t>EDW_ESL_MONTHLY_HP_DAY15</t>
+  </si>
+  <si>
+    <t>IMEX_CCB</t>
+  </si>
+  <si>
+    <t>TF_SRC_Daily</t>
+  </si>
+  <si>
+    <t>AM_SRC_Daily</t>
+  </si>
+  <si>
+    <t>NSS</t>
+  </si>
+  <si>
+    <t>EDW_NSS_DSF_MONTHLY</t>
+  </si>
+  <si>
+    <t>AML_DSF_Daily1</t>
+  </si>
+  <si>
+    <t>INT_L_LEAD_EDW_AUTO_APPL_SLA</t>
+  </si>
+  <si>
+    <t>LEAD_AUTO_SRC_Daily</t>
+  </si>
+  <si>
+    <t>INT_T_CSL_08_CODE</t>
+  </si>
+  <si>
+    <t>INT_L_LEAD_EDW_UL_STD_STAFF</t>
+  </si>
+  <si>
+    <t>INT_T_AML_ACCOUNT_DIM</t>
+  </si>
+  <si>
+    <t>DSGEDW,CCB_PARM_CCB_BAL_TYPE_1_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVP1 </t>
+  </si>
+  <si>
+    <t>MVP2</t>
+  </si>
+  <si>
+    <t>BI_DSF_BLG_CY_Yearly</t>
+  </si>
+  <si>
+    <t>BI_DSF_EXT_Daily</t>
+  </si>
+  <si>
+    <t>BIFI_SRC_Per</t>
+  </si>
+  <si>
+    <t>BIFI_SRC_Per2</t>
+  </si>
+  <si>
+    <t>EDW_ESL_MONTHLY_HP</t>
+  </si>
+  <si>
+    <t>EDW_SBG_PERREQUEST</t>
+  </si>
+  <si>
+    <t>MVP4</t>
+  </si>
+  <si>
+    <t>BI_DSF_ACL_Per</t>
+  </si>
+  <si>
+    <t>AML_DSF_Daily</t>
+  </si>
+  <si>
+    <t>DEPLOY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -660,6 +785,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1062,11 +1193,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D787"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:D785"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1094,7 +1228,7 @@
     </row>
     <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1103,12 +1237,12 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1117,12 +1251,12 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1131,12 +1265,12 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1145,12 +1279,12 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1159,12 +1293,12 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1173,12 +1307,12 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1187,12 +1321,12 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1201,12 +1335,12 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -1215,12 +1349,12 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -1229,12 +1363,12 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -1243,12 +1377,12 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -1257,12 +1391,12 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -1271,7 +1405,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1285,12 +1419,12 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -1299,12 +1433,12 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -1313,12 +1447,12 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -1327,12 +1461,12 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -1341,12 +1475,12 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -1355,12 +1489,12 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -1369,7 +1503,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1388,7 +1522,7 @@
     </row>
     <row r="23" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -1397,12 +1531,12 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -1411,12 +1545,12 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -1425,12 +1559,12 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -1439,12 +1573,12 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -1453,12 +1587,12 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -1467,12 +1601,12 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -1481,12 +1615,12 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -1495,12 +1629,12 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -1509,12 +1643,12 @@
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -1523,12 +1657,12 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -1537,12 +1671,12 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -1551,12 +1685,12 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -1565,12 +1699,12 @@
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -1579,12 +1713,12 @@
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -1593,12 +1727,12 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -1607,7 +1741,7 @@
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1626,7 +1760,7 @@
     </row>
     <row r="40" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -1635,12 +1769,12 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -1649,12 +1783,12 @@
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -1663,12 +1797,12 @@
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -1677,12 +1811,12 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>210</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -1691,12 +1825,12 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -1705,12 +1839,12 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -1719,12 +1853,12 @@
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -1733,12 +1867,12 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -1747,12 +1881,12 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -1761,12 +1895,12 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>212</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -1775,12 +1909,12 @@
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -1789,12 +1923,12 @@
         <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -1803,12 +1937,12 @@
         <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>164</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -1817,12 +1951,12 @@
         <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -1831,12 +1965,12 @@
         <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -1845,12 +1979,12 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
@@ -1859,12 +1993,12 @@
         <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
@@ -1873,12 +2007,12 @@
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -1887,12 +2021,12 @@
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -1901,12 +2035,12 @@
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
@@ -1915,12 +2049,12 @@
         <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -1929,12 +2063,12 @@
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
@@ -1943,12 +2077,12 @@
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
@@ -1957,12 +2091,12 @@
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -1971,12 +2105,12 @@
         <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -1985,12 +2119,12 @@
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -1999,12 +2133,12 @@
         <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -2013,7 +2147,7 @@
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2027,12 +2161,12 @@
         <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -2041,7 +2175,7 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2055,12 +2189,12 @@
         <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -2069,12 +2203,12 @@
         <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>129</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
@@ -2083,12 +2217,12 @@
         <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -2097,278 +2231,278 @@
         <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>130</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>36</v>
+        <v>219</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>130</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="D91" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="D92" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
@@ -2377,12 +2511,12 @@
         <v>4</v>
       </c>
       <c r="D93" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -2391,7 +2525,7 @@
         <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>106</v>
+        <v>223</v>
       </c>
     </row>
     <row r="95" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2424,41 +2558,41 @@
     </row>
     <row r="97" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D97" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>52</v>
+        <v>224</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>106</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D99" t="s">
         <v>130</v>
@@ -2466,13 +2600,13 @@
     </row>
     <row r="100" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D100" t="s">
         <v>130</v>
@@ -2480,27 +2614,27 @@
     </row>
     <row r="101" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D102" t="s">
         <v>130</v>
@@ -2508,27 +2642,27 @@
     </row>
     <row r="103" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D103" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
     </row>
     <row r="104" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D104" t="s">
         <v>130</v>
@@ -2536,13 +2670,13 @@
     </row>
     <row r="105" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D105" t="s">
         <v>130</v>
@@ -2550,13 +2684,13 @@
     </row>
     <row r="106" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D106" t="s">
         <v>130</v>
@@ -2564,41 +2698,41 @@
     </row>
     <row r="107" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>96</v>
+        <v>225</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D107" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D108" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
     </row>
     <row r="109" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D109" t="s">
         <v>141</v>
@@ -2606,27 +2740,27 @@
     </row>
     <row r="110" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D110" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D111" t="s">
         <v>130</v>
@@ -2634,13 +2768,13 @@
     </row>
     <row r="112" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D112" t="s">
         <v>130</v>
@@ -2648,77 +2782,77 @@
     </row>
     <row r="113" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D114" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>68</v>
+        <v>226</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D115" t="s">
-        <v>130</v>
+        <v>238</v>
       </c>
     </row>
     <row r="116" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D116" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D117" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
@@ -2727,35 +2861,321 @@
         <v>8</v>
       </c>
       <c r="D118" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>97</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="119" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>64</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>66</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>68</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>53</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>70</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>227</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>52</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>65</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>56</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>58</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>55</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>69</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>62</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>67</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>63</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>60</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>51</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>54</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>61</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>57</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>96</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="145" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="146" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="147" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3397,12 +3817,10 @@
     <row r="783" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="784" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="785" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="786" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="787" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:D118" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A2:A46">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <autoFilter ref="A1:D117" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="A2:A45">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3415,12 +3833,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73062F12-452F-490B-8A18-5A814C29F95A}">
   <sheetPr>
-    <tabColor theme="0"/>
+    <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3589,4 +4008,158 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30C043D-35C5-42B7-97A1-5E1C45A58FB0}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B16" xr:uid="{B30C043D-35C5-42B7-97A1-5E1C45A58FB0}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/parameter/template.xlsx
+++ b/parameter/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Coding\Project\deploy_scb\parameter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BD70CD-41BE-49B4-BED3-5A4BBB22A4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDF5009-DF26-4733-A45E-40D604F51AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="period" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$D$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$D$143</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ddl!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">period!$A$1:$B$16</definedName>
   </definedNames>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="245">
   <si>
     <t>LIST</t>
   </si>
@@ -756,17 +756,32 @@
     <t>BI_DSF_ACL_Per</t>
   </si>
   <si>
-    <t>AML_DSF_Daily</t>
-  </si>
-  <si>
     <t>DEPLOY</t>
+  </si>
+  <si>
+    <t>BI_DSF_DDATE_Yearly</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>RM_Daily</t>
+  </si>
+  <si>
+    <t>B2K</t>
+  </si>
+  <si>
+    <t>B2K_SRC_Daily</t>
+  </si>
+  <si>
+    <t>P1VTPBIT.VBI_DIM_DATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -791,6 +806,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -837,12 +859,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1196,11 +1219,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:D785"/>
+  <dimension ref="A1:D783"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1208,7 +1231,7 @@
     <col min="1" max="1" width="38.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1228,7 +1251,7 @@
     </row>
     <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1237,12 +1260,12 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1251,12 +1274,12 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1265,12 +1288,12 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1279,12 +1302,12 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1293,12 +1316,12 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1307,12 +1330,12 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1321,12 +1344,12 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1335,12 +1358,12 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -1349,12 +1372,12 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -1363,12 +1386,12 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -1377,12 +1400,12 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -1391,12 +1414,12 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -1405,12 +1428,12 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -1419,12 +1442,12 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -1433,12 +1456,12 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -1447,12 +1470,12 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -1461,12 +1484,12 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -1475,12 +1498,12 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -1489,12 +1512,12 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -1503,12 +1526,12 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -1517,12 +1540,12 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -1531,7 +1554,7 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1545,12 +1568,12 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -1559,12 +1582,12 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -1573,12 +1596,12 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -1587,12 +1610,12 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -1601,12 +1624,12 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -1615,12 +1638,12 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -1629,12 +1652,12 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -1643,12 +1666,12 @@
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -1657,12 +1680,12 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -1671,12 +1694,12 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -1685,12 +1708,12 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -1699,12 +1722,12 @@
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -1713,12 +1736,12 @@
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>143</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -1727,12 +1750,12 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -1741,12 +1764,12 @@
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -1755,12 +1778,12 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -1769,12 +1792,12 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -1783,12 +1806,12 @@
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -1797,12 +1820,12 @@
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -1811,12 +1834,12 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>210</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -1825,12 +1848,12 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -1839,12 +1862,12 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -1853,12 +1876,12 @@
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -1867,12 +1890,12 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -1881,12 +1904,12 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -1895,12 +1918,12 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>212</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -1909,12 +1932,12 @@
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -1923,12 +1946,12 @@
         <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -1937,12 +1960,12 @@
         <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -1951,12 +1974,12 @@
         <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -1965,12 +1988,12 @@
         <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -1979,12 +2002,12 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
@@ -1993,12 +2016,12 @@
         <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
@@ -2007,12 +2030,12 @@
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>107</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -2021,12 +2044,12 @@
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>118</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -2035,12 +2058,12 @@
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
@@ -2049,12 +2072,12 @@
         <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -2063,12 +2086,12 @@
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
@@ -2077,12 +2100,12 @@
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
@@ -2091,12 +2114,12 @@
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -2105,12 +2128,12 @@
         <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -2119,12 +2142,12 @@
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -2133,12 +2156,12 @@
         <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -2147,12 +2170,12 @@
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -2161,12 +2184,12 @@
         <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -2175,12 +2198,12 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
@@ -2189,12 +2212,12 @@
         <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -2203,12 +2226,12 @@
         <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>214</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
@@ -2217,12 +2240,12 @@
         <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -2231,12 +2254,12 @@
         <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>127</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
@@ -2245,12 +2268,12 @@
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -2259,12 +2282,12 @@
         <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
@@ -2273,12 +2296,12 @@
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -2287,12 +2310,12 @@
         <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>115</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
@@ -2301,12 +2324,12 @@
         <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
@@ -2315,12 +2338,12 @@
         <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>216</v>
+        <v>13</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
@@ -2329,12 +2352,12 @@
         <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
@@ -2343,12 +2366,12 @@
         <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>218</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -2357,12 +2380,12 @@
         <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>219</v>
+        <v>27</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -2371,12 +2394,12 @@
         <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>220</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
@@ -2385,12 +2408,12 @@
         <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -2399,12 +2422,12 @@
         <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -2413,12 +2436,12 @@
         <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="87" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
@@ -2427,12 +2450,12 @@
         <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
@@ -2441,12 +2464,12 @@
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -2455,12 +2478,12 @@
         <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -2469,82 +2492,82 @@
         <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>160</v>
+        <v>221</v>
       </c>
     </row>
     <row r="92" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>222</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="D94" t="s">
-        <v>223</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="D95" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -2553,12 +2576,12 @@
         <v>4</v>
       </c>
       <c r="D96" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
@@ -2567,12 +2590,12 @@
         <v>4</v>
       </c>
       <c r="D97" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>224</v>
+        <v>33</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
@@ -2581,12 +2604,12 @@
         <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>206</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
@@ -2595,12 +2618,12 @@
         <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
@@ -2614,7 +2637,7 @@
     </row>
     <row r="101" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
@@ -2623,12 +2646,12 @@
         <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>106</v>
+        <v>223</v>
       </c>
     </row>
     <row r="102" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>35</v>
+        <v>225</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
@@ -2637,12 +2660,12 @@
         <v>4</v>
       </c>
       <c r="D102" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
@@ -2651,12 +2674,12 @@
         <v>4</v>
       </c>
       <c r="D103" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
@@ -2665,12 +2688,12 @@
         <v>4</v>
       </c>
       <c r="D104" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
@@ -2679,12 +2702,12 @@
         <v>4</v>
       </c>
       <c r="D105" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
     </row>
     <row r="106" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>33</v>
+        <v>224</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
@@ -2693,12 +2716,12 @@
         <v>4</v>
       </c>
       <c r="D106" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -2707,12 +2730,12 @@
         <v>4</v>
       </c>
       <c r="D107" t="s">
-        <v>193</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
@@ -2721,12 +2744,12 @@
         <v>4</v>
       </c>
       <c r="D108" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
@@ -2740,7 +2763,7 @@
     </row>
     <row r="110" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>179</v>
+        <v>72</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
@@ -2749,12 +2772,12 @@
         <v>4</v>
       </c>
       <c r="D110" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
@@ -2763,12 +2786,12 @@
         <v>4</v>
       </c>
       <c r="D111" t="s">
-        <v>130</v>
+        <v>213</v>
       </c>
     </row>
     <row r="112" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
@@ -2777,12 +2800,12 @@
         <v>4</v>
       </c>
       <c r="D112" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="B113" t="s">
         <v>3</v>
@@ -2791,12 +2814,12 @@
         <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="114" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
@@ -2805,12 +2828,12 @@
         <v>4</v>
       </c>
       <c r="D114" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
@@ -2819,12 +2842,12 @@
         <v>4</v>
       </c>
       <c r="D115" t="s">
-        <v>238</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
@@ -2833,12 +2856,12 @@
         <v>4</v>
       </c>
       <c r="D116" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B117" t="s">
         <v>3</v>
@@ -2847,18 +2870,18 @@
         <v>4</v>
       </c>
       <c r="D117" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D118" t="s">
         <v>130</v>
@@ -2866,35 +2889,35 @@
     </row>
     <row r="119" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D119" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D120" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -2908,7 +2931,7 @@
     </row>
     <row r="122" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
@@ -2917,12 +2940,12 @@
         <v>8</v>
       </c>
       <c r="D122" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
@@ -2931,12 +2954,12 @@
         <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
@@ -2950,7 +2973,7 @@
     </row>
     <row r="125" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>227</v>
+        <v>66</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
@@ -2959,12 +2982,12 @@
         <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
@@ -2973,12 +2996,12 @@
         <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
@@ -2992,7 +3015,7 @@
     </row>
     <row r="128" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
@@ -3006,7 +3029,7 @@
     </row>
     <row r="129" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
@@ -3015,12 +3038,12 @@
         <v>8</v>
       </c>
       <c r="D129" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="130" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
@@ -3034,7 +3057,7 @@
     </row>
     <row r="131" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
@@ -3048,7 +3071,7 @@
     </row>
     <row r="132" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
@@ -3057,12 +3080,12 @@
         <v>8</v>
       </c>
       <c r="D132" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
@@ -3076,7 +3099,7 @@
     </row>
     <row r="134" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
@@ -3090,7 +3113,7 @@
     </row>
     <row r="135" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
@@ -3104,7 +3127,7 @@
     </row>
     <row r="136" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
@@ -3113,12 +3136,12 @@
         <v>8</v>
       </c>
       <c r="D136" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
@@ -3132,7 +3155,7 @@
     </row>
     <row r="138" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
@@ -3141,12 +3164,12 @@
         <v>8</v>
       </c>
       <c r="D138" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
@@ -3155,12 +3178,12 @@
         <v>8</v>
       </c>
       <c r="D139" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
@@ -3169,12 +3192,51 @@
         <v>8</v>
       </c>
       <c r="D140" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>56</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>55</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" t="s">
+        <v>130</v>
+      </c>
+    </row>
     <row r="144" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="145" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="146" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3815,12 +3877,10 @@
     <row r="781" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="782" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="783" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="784" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="785" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:D117" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A2:A45">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <autoFilter ref="A1:D143" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="A2:A44">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3839,13 +3899,13 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3933,7 +3993,7 @@
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3941,7 +4001,7 @@
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3949,7 +4009,7 @@
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3957,12 +4017,17 @@
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -4017,9 +4082,9 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4033,7 +4098,7 @@
         <v>181</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/parameter/template.xlsx
+++ b/parameter/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Coding\Project\deploy_scb\parameter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDF5009-DF26-4733-A45E-40D604F51AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F650432-32CB-461C-9EDF-004D5141287A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="period" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$D$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$D$530</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ddl!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">period!$A$1:$B$16</definedName>
   </definedNames>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="645">
   <si>
     <t>LIST</t>
   </si>
@@ -775,6 +775,1206 @@
   </si>
   <si>
     <t>P1VTPBIT.VBI_DIM_DATE</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S1_SRC_Daily</t>
+  </si>
+  <si>
+    <t>PBFE</t>
+  </si>
+  <si>
+    <t>CTLFW_SYSTEM_FILE</t>
+  </si>
+  <si>
+    <t>PBFE_SRC_Monthly</t>
+  </si>
+  <si>
+    <t>POINTX</t>
+  </si>
+  <si>
+    <t>POINTX_SRC_Daily</t>
+  </si>
+  <si>
+    <t>EDW_PBFE_DB_DSF_DAILY</t>
+  </si>
+  <si>
+    <t>LEADAUTO</t>
+  </si>
+  <si>
+    <t>RDS_EP_DSF_MONTHLY</t>
+  </si>
+  <si>
+    <t>RISK</t>
+  </si>
+  <si>
+    <t>RISK_M20_DSF_Monthly</t>
+  </si>
+  <si>
+    <t>DMS</t>
+  </si>
+  <si>
+    <t>DMS_DSF_MONTHLY_V2</t>
+  </si>
+  <si>
+    <t>NSS_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>CCS</t>
+  </si>
+  <si>
+    <t>CCS_DSF_Per</t>
+  </si>
+  <si>
+    <t>OLS_SRC_Per</t>
+  </si>
+  <si>
+    <t>SSUP</t>
+  </si>
+  <si>
+    <t>SSUP_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>LOS</t>
+  </si>
+  <si>
+    <t>LOS_EXT_PER</t>
+  </si>
+  <si>
+    <t>IVR</t>
+  </si>
+  <si>
+    <t>IVR_SRC_Per</t>
+  </si>
+  <si>
+    <t>ENL_DSF_Per</t>
+  </si>
+  <si>
+    <t>SVS</t>
+  </si>
+  <si>
+    <t>SVS_DSF_DAILY</t>
+  </si>
+  <si>
+    <t>BI_DSF_ACL_Monthly</t>
+  </si>
+  <si>
+    <t>RPA</t>
+  </si>
+  <si>
+    <t>EDWSTG_RPA_PERREQUEST</t>
+  </si>
+  <si>
+    <t>5DSF_DSF_DAILY2</t>
+  </si>
+  <si>
+    <t>CDMS</t>
+  </si>
+  <si>
+    <t>CDMS_DSF_Daily</t>
+  </si>
+  <si>
+    <t>DPA</t>
+  </si>
+  <si>
+    <t>DPA_DSF_EXT_PER</t>
+  </si>
+  <si>
+    <t>CFE</t>
+  </si>
+  <si>
+    <t>CFE_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>IRS</t>
+  </si>
+  <si>
+    <t>IRS_DSF_INBOUND_DAILY</t>
+  </si>
+  <si>
+    <t>PSS</t>
+  </si>
+  <si>
+    <t>PSS_SRC_Daily</t>
+  </si>
+  <si>
+    <t>SCBL_DSF_PER</t>
+  </si>
+  <si>
+    <t>ODS</t>
+  </si>
+  <si>
+    <t>ODS_DSF_DAILY</t>
+  </si>
+  <si>
+    <t>CDD_DSF_Per</t>
+  </si>
+  <si>
+    <t>BKL</t>
+  </si>
+  <si>
+    <t>EDW_BKL_DSF_WEEKLY</t>
+  </si>
+  <si>
+    <t>IRS_DSF_PER</t>
+  </si>
+  <si>
+    <t>UTM</t>
+  </si>
+  <si>
+    <t>UTM_SRC_Daily</t>
+  </si>
+  <si>
+    <t>CTP</t>
+  </si>
+  <si>
+    <t>EDW_CTP_MONTHLY</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>GL_SRC_Per_Closing_D12</t>
+  </si>
+  <si>
+    <t>ISOP</t>
+  </si>
+  <si>
+    <t>ISOP_SRC_Daily</t>
+  </si>
+  <si>
+    <t>MCHQ</t>
+  </si>
+  <si>
+    <t>MCHQ_DAILY</t>
+  </si>
+  <si>
+    <t>IRS_DSF_DAILY</t>
+  </si>
+  <si>
+    <t>DMS_DSF_HALFYEAR</t>
+  </si>
+  <si>
+    <t>EDW_PBFE_DSF_DAILY</t>
+  </si>
+  <si>
+    <t>SFC</t>
+  </si>
+  <si>
+    <t>EDW_SFC_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>RBSIS</t>
+  </si>
+  <si>
+    <t>RBSIS_SRC_MONTHLY</t>
+  </si>
+  <si>
+    <t>EDW_SFC_IVR_DSF</t>
+  </si>
+  <si>
+    <t>FRC</t>
+  </si>
+  <si>
+    <t>FRC_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>INS</t>
+  </si>
+  <si>
+    <t>INS_SRC_Quarter</t>
+  </si>
+  <si>
+    <t>INV_SRC_PERREQUEST</t>
+  </si>
+  <si>
+    <t>CCS_DSF_Monthly2</t>
+  </si>
+  <si>
+    <t>CDMS_DSF_Per</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>LOC_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>ODS_DSF_MONTHLY</t>
+  </si>
+  <si>
+    <t>IFT</t>
+  </si>
+  <si>
+    <t>IFT_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>DMS_DSF_EXTERNAL_MONTHLY</t>
+  </si>
+  <si>
+    <t>LLFP</t>
+  </si>
+  <si>
+    <t>LLFP_DSF_PERREQUEST</t>
+  </si>
+  <si>
+    <t>ERP</t>
+  </si>
+  <si>
+    <t>ERP_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>PFM</t>
+  </si>
+  <si>
+    <t>PFM_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>PFM_DSF_MONTHLY</t>
+  </si>
+  <si>
+    <t>PPS</t>
+  </si>
+  <si>
+    <t>PPS_DSF_MONTHLY_ADJ_COLLATERAL_INFO_T2C</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>EDW_ML_DOWNSTEAM2</t>
+  </si>
+  <si>
+    <t>FCD</t>
+  </si>
+  <si>
+    <t>DMS_DSF_DAILY_CARDX</t>
+  </si>
+  <si>
+    <t>MCS</t>
+  </si>
+  <si>
+    <t>MCS_SRC_Daily</t>
+  </si>
+  <si>
+    <t>RISK_DSF_Monthly</t>
+  </si>
+  <si>
+    <t>EDW_BKL_DSF_DAILY</t>
+  </si>
+  <si>
+    <t>RISK_UL_TRANSFORM_Daily</t>
+  </si>
+  <si>
+    <t>EDW_ML_PERREQUEST</t>
+  </si>
+  <si>
+    <t>GNL</t>
+  </si>
+  <si>
+    <t>EDW_GNL_DSF_WEEKLY</t>
+  </si>
+  <si>
+    <t>DMS_DSF_MONTHLY</t>
+  </si>
+  <si>
+    <t>DMS_EX_PMS_DAILY</t>
+  </si>
+  <si>
+    <t>RSK</t>
+  </si>
+  <si>
+    <t>RSK_DSF_Per</t>
+  </si>
+  <si>
+    <t>PPS_DSF_FREEZE_MONTHLY</t>
+  </si>
+  <si>
+    <t>EDW_SFC_SOURCE_MONTHLY</t>
+  </si>
+  <si>
+    <t>LVL</t>
+  </si>
+  <si>
+    <t>LVL_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>PLT</t>
+  </si>
+  <si>
+    <t>PLT_SRC_Daily</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>EPS_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SC_QUARTER</t>
+  </si>
+  <si>
+    <t>EDW_CTP_PER</t>
+  </si>
+  <si>
+    <t>EDW_MCS_DSF_DAILY</t>
+  </si>
+  <si>
+    <t>DMS_DSF_QUARTER</t>
+  </si>
+  <si>
+    <t>GL_SRC_Daily</t>
+  </si>
+  <si>
+    <t>ESN_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>PPS_DSF_MONTHLY_ADJ_HP_ACCT_T4C</t>
+  </si>
+  <si>
+    <t>SCF</t>
+  </si>
+  <si>
+    <t>SCF_SRC_Daily</t>
+  </si>
+  <si>
+    <t>OBIN</t>
+  </si>
+  <si>
+    <t>OBIN_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>EDW_B2K_DSF_MONTHLY</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>CSS_DSF_DAILY</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>CBO</t>
+  </si>
+  <si>
+    <t>CBO_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>BBG</t>
+  </si>
+  <si>
+    <t>BBG_DSF_MONTHLY</t>
+  </si>
+  <si>
+    <t>GL_SRC_Per_Closing_EOM</t>
+  </si>
+  <si>
+    <t>CCB_DSF_DAILY</t>
+  </si>
+  <si>
+    <t>PBFE_SRC_Per</t>
+  </si>
+  <si>
+    <t>B2K_SRC_Per</t>
+  </si>
+  <si>
+    <t>UTM_DSF_Daily</t>
+  </si>
+  <si>
+    <t>PFM_DSF_WEEKLY_EOM</t>
+  </si>
+  <si>
+    <t>AM_DSF_Monthly</t>
+  </si>
+  <si>
+    <t>OLS_SRC_Daily</t>
+  </si>
+  <si>
+    <t>ACR</t>
+  </si>
+  <si>
+    <t>ACR_DSF_MONTHLY</t>
+  </si>
+  <si>
+    <t>FLTC</t>
+  </si>
+  <si>
+    <t>FLTC_SRC_Daily</t>
+  </si>
+  <si>
+    <t>MPS</t>
+  </si>
+  <si>
+    <t>MPS_SRC_Daily</t>
+  </si>
+  <si>
+    <t>IMEX_SRC_PER</t>
+  </si>
+  <si>
+    <t>EDW_GNL_SOURCE_WEEKLY</t>
+  </si>
+  <si>
+    <t>RBF_DSF_DAILY</t>
+  </si>
+  <si>
+    <t>CDMS_DSF_Monthly</t>
+  </si>
+  <si>
+    <t>MRP_DSF_PER_DAILY</t>
+  </si>
+  <si>
+    <t>RSK_DSF_Weekly</t>
+  </si>
+  <si>
+    <t>PFM_DSF_WEEKLY2</t>
+  </si>
+  <si>
+    <t>RISK_UL_DSF_Daily</t>
+  </si>
+  <si>
+    <t>INS_SRC_Daily</t>
+  </si>
+  <si>
+    <t>CSM_SRC_Per</t>
+  </si>
+  <si>
+    <t>DSR</t>
+  </si>
+  <si>
+    <t>DSR_SCR_DAILY</t>
+  </si>
+  <si>
+    <t>RISK_LCS_DSF_Monthly</t>
+  </si>
+  <si>
+    <t>PPS_DSF_MONTHLY_ADJ_ACCT_INFO_T1C</t>
+  </si>
+  <si>
+    <t>LEAD_UL_SRC_Per</t>
+  </si>
+  <si>
+    <t>RDS_TD_DSF_PER_YEARLY</t>
+  </si>
+  <si>
+    <t>SC_DSF_SOURCE_MONTHLY</t>
+  </si>
+  <si>
+    <t>EDW_ML_DOWNSTEAM</t>
+  </si>
+  <si>
+    <t>EDW_SFC_SOURCE_WEEKLY</t>
+  </si>
+  <si>
+    <t>CSM_DSF_MONTH_M4</t>
+  </si>
+  <si>
+    <t>PFM_DSF_WEEKLY</t>
+  </si>
+  <si>
+    <t>BI_DSF_SPM_Weekly</t>
+  </si>
+  <si>
+    <t>CDD_DSF_Weekly</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>EDW_ST_DSF_MONTH</t>
+  </si>
+  <si>
+    <t>RISK_M42_DSF_Monthly</t>
+  </si>
+  <si>
+    <t>SCB1</t>
+  </si>
+  <si>
+    <t>SCB1_SRC_Daily</t>
+  </si>
+  <si>
+    <t>DMS_DSF_MONTHLY_REQ2</t>
+  </si>
+  <si>
+    <t>EDW_B2K_DSF_DAILY</t>
+  </si>
+  <si>
+    <t>LOS_SRC_Daily</t>
+  </si>
+  <si>
+    <t>EDW_SFC_CUSTLIST_MTH</t>
+  </si>
+  <si>
+    <t>FRCI</t>
+  </si>
+  <si>
+    <t>FRCI_SRC_Daily</t>
+  </si>
+  <si>
+    <t>FATCA</t>
+  </si>
+  <si>
+    <t>FAT_DSF_DAILY</t>
+  </si>
+  <si>
+    <t>PPS_DSF_MONTHLY_ADJ_COLLATERAL_INFO_T2B</t>
+  </si>
+  <si>
+    <t>EDW_MCS_DSF_MONTH</t>
+  </si>
+  <si>
+    <t>ENL_DSF_Monthly</t>
+  </si>
+  <si>
+    <t>BCM_DSF_Monthly3</t>
+  </si>
+  <si>
+    <t>IVR_SRC_Daily</t>
+  </si>
+  <si>
+    <t>RDS_EP_DSF_DAILY</t>
+  </si>
+  <si>
+    <t>CSENT_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>ST_FCD_SRC_Daily</t>
+  </si>
+  <si>
+    <t>PPS_DSF_MONTHLY_ADJ_HP_ACCT_T4B</t>
+  </si>
+  <si>
+    <t>CAPI</t>
+  </si>
+  <si>
+    <t>CAPI_SRC_Daily</t>
+  </si>
+  <si>
+    <t>PMH_DSF_PERREQUEST</t>
+  </si>
+  <si>
+    <t>EPP</t>
+  </si>
+  <si>
+    <t>SCBCON</t>
+  </si>
+  <si>
+    <t>SCBCON_SRC_Daily</t>
+  </si>
+  <si>
+    <t>RDS_EP_DSF_YEARLY_ADJ</t>
+  </si>
+  <si>
+    <t>BRR</t>
+  </si>
+  <si>
+    <t>BRR_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>CMS</t>
+  </si>
+  <si>
+    <t>EDW_CMS_EXTERNAL</t>
+  </si>
+  <si>
+    <t>ROC</t>
+  </si>
+  <si>
+    <t>ROC_DSF_PER</t>
+  </si>
+  <si>
+    <t>PPS_DSF_MONTHLY_ADJ_COLLATERAL_INFO_T2A</t>
+  </si>
+  <si>
+    <t>PPS_DSF_MONTHLY_ADJ_ACCT_COLL_INFO_T3A</t>
+  </si>
+  <si>
+    <t>SCBC</t>
+  </si>
+  <si>
+    <t>SCBC_DSF_WEEKLY</t>
+  </si>
+  <si>
+    <t>CSM_SRC_Daily</t>
+  </si>
+  <si>
+    <t>RUB</t>
+  </si>
+  <si>
+    <t>RUB_MONTHLY</t>
+  </si>
+  <si>
+    <t>GL_SRC_Monthly</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>IV_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>PFM_DSF_PER</t>
+  </si>
+  <si>
+    <t>PPS_DSF_MONTHLY_ADJ_ACCT_INFO_T1B</t>
+  </si>
+  <si>
+    <t>SCRUB</t>
+  </si>
+  <si>
+    <t>EDW_SCRUB_DAILY</t>
+  </si>
+  <si>
+    <t>CCP_DSF_Monthly</t>
+  </si>
+  <si>
+    <t>INV_DSF_MONTHLY</t>
+  </si>
+  <si>
+    <t>DMS_DSF_EXTERNAL_PER_CARDX</t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>BU_DSF_Monthly</t>
+  </si>
+  <si>
+    <t>LIS</t>
+  </si>
+  <si>
+    <t>LIS_SRC_MONTHLY</t>
+  </si>
+  <si>
+    <t>IM_DSF_Monthly</t>
+  </si>
+  <si>
+    <t>BRR_DSF_MONTHLY</t>
+  </si>
+  <si>
+    <t>EDW_CSM_DSF_PER</t>
+  </si>
+  <si>
+    <t>CPX</t>
+  </si>
+  <si>
+    <t>CPX_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>IRB</t>
+  </si>
+  <si>
+    <t>IRB_SRC_Per</t>
+  </si>
+  <si>
+    <t>EDW_CTP_DAILY</t>
+  </si>
+  <si>
+    <t>RDS_EP_DSF_YEARLY</t>
+  </si>
+  <si>
+    <t>ICAS</t>
+  </si>
+  <si>
+    <t>ICAS_SRC_DAILY_SV</t>
+  </si>
+  <si>
+    <t>AM_SRC_Per</t>
+  </si>
+  <si>
+    <t>RISK_LEAD_DSF_Daily</t>
+  </si>
+  <si>
+    <t>GCS</t>
+  </si>
+  <si>
+    <t>GCS_SRC_Daily</t>
+  </si>
+  <si>
+    <t>PPS_DSF_MONTHLY_ADJ_ACCT_INFO_T1A</t>
+  </si>
+  <si>
+    <t>ACR_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>BSB</t>
+  </si>
+  <si>
+    <t>BSB_SRC_Daily</t>
+  </si>
+  <si>
+    <t>PPS_DSF_PERREQUEST_ARESREVE</t>
+  </si>
+  <si>
+    <t>EDW_SFC_REQ</t>
+  </si>
+  <si>
+    <t>STB</t>
+  </si>
+  <si>
+    <t>STB_SRC_Monthly</t>
+  </si>
+  <si>
+    <t>RISK_LEADAUTO_DSF_Daily</t>
+  </si>
+  <si>
+    <t>CBOS</t>
+  </si>
+  <si>
+    <t>CBOS_SRC_MONTHLY</t>
+  </si>
+  <si>
+    <t>EDW_BKL_DSF_MTH_1</t>
+  </si>
+  <si>
+    <t>BI_DSF_LEAD_Daily</t>
+  </si>
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t>SRS_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>LOS_DSF_Monthly</t>
+  </si>
+  <si>
+    <t>NROL</t>
+  </si>
+  <si>
+    <t>NROL_SRC_Daily</t>
+  </si>
+  <si>
+    <t>AM_SRC_Monthly</t>
+  </si>
+  <si>
+    <t>RBSIS_DSF_DAILY</t>
+  </si>
+  <si>
+    <t>RDS_TD_DSF_YEARLY</t>
+  </si>
+  <si>
+    <t>RDS_DSF_PER</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>HP_SRC_Daily_30</t>
+  </si>
+  <si>
+    <t>CB_DSF_YEARLY</t>
+  </si>
+  <si>
+    <t>DMS_DSF_MONTHLY_REQ</t>
+  </si>
+  <si>
+    <t>RISK_DSF_Weekly</t>
+  </si>
+  <si>
+    <t>B2K_SRC_Per_CARDX</t>
+  </si>
+  <si>
+    <t>UTM_DSF_Monthly</t>
+  </si>
+  <si>
+    <t>ATM_CCB</t>
+  </si>
+  <si>
+    <t>ATM_CCB_SRC_Daily</t>
+  </si>
+  <si>
+    <t>ATS</t>
+  </si>
+  <si>
+    <t>ATS_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>OBM_DSF_EXT_LOAD_PER</t>
+  </si>
+  <si>
+    <t>EWLP</t>
+  </si>
+  <si>
+    <t>EWLP_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>RISK_DSF_Per</t>
+  </si>
+  <si>
+    <t>DMS_DSF_MONTHLY_BOT</t>
+  </si>
+  <si>
+    <t>KLM</t>
+  </si>
+  <si>
+    <t>KLM_DSF_DAILY</t>
+  </si>
+  <si>
+    <t>RDS_ES_DSF_DAILY</t>
+  </si>
+  <si>
+    <t>EDW_MCS_DSF_PER</t>
+  </si>
+  <si>
+    <t>DMS_DSF_EXTERNAL_PER</t>
+  </si>
+  <si>
+    <t>HP_SRC_Monthly</t>
+  </si>
+  <si>
+    <t>CCP_DSF_Daily</t>
+  </si>
+  <si>
+    <t>LLFP_SRC_MONTHLY</t>
+  </si>
+  <si>
+    <t>SBA</t>
+  </si>
+  <si>
+    <t>SBA_SRC_Daily</t>
+  </si>
+  <si>
+    <t>RIS</t>
+  </si>
+  <si>
+    <t>RIS_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>HP_SRC_Daily_31</t>
+  </si>
+  <si>
+    <t>PBFE_SRC_Daily</t>
+  </si>
+  <si>
+    <t>MRP_DSF_PER</t>
+  </si>
+  <si>
+    <t>IRS_DSF_MTH</t>
+  </si>
+  <si>
+    <t>LEGO</t>
+  </si>
+  <si>
+    <t>LEGO_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>BKL_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>SWALL</t>
+  </si>
+  <si>
+    <t>SWALL_SRC_Daily</t>
+  </si>
+  <si>
+    <t>EDW_CSM_DOWNSTEAM</t>
+  </si>
+  <si>
+    <t>B2MTX</t>
+  </si>
+  <si>
+    <t>B2MTX_SRC_Daily</t>
+  </si>
+  <si>
+    <t>CSM_SRC_Monthly</t>
+  </si>
+  <si>
+    <t>KLM_DSF_PERREQUEST</t>
+  </si>
+  <si>
+    <t>AIS</t>
+  </si>
+  <si>
+    <t>AIS_SRC_Daily</t>
+  </si>
+  <si>
+    <t>ANYID</t>
+  </si>
+  <si>
+    <t>ANYID_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>DMS_DSF_MONTHLY_M11</t>
+  </si>
+  <si>
+    <t>CBOS_SRC_MONTHLY2</t>
+  </si>
+  <si>
+    <t>ROC_DSF_MONTHLY</t>
+  </si>
+  <si>
+    <t>SC_PERREQUEST</t>
+  </si>
+  <si>
+    <t>DMS_DSF_DAILY</t>
+  </si>
+  <si>
+    <t>ACTM_TRANSFORM_PER</t>
+  </si>
+  <si>
+    <t>DPA_DSF_MONTHLY</t>
+  </si>
+  <si>
+    <t>CRMD</t>
+  </si>
+  <si>
+    <t>CRMD_DSF_Daily</t>
+  </si>
+  <si>
+    <t>ESN_SRC_PERREQUEST</t>
+  </si>
+  <si>
+    <t>DMS_DSF_EXTERNAL_DAILY</t>
+  </si>
+  <si>
+    <t>PMKFE</t>
+  </si>
+  <si>
+    <t>PMKFE_SRC_Daily</t>
+  </si>
+  <si>
+    <t>AML_DSF_Daily2</t>
+  </si>
+  <si>
+    <t>SC_DSF_MONTHLY</t>
+  </si>
+  <si>
+    <t>PPS_DSF_MONTHLY_ADJ_HP_ACCT_T4A</t>
+  </si>
+  <si>
+    <t>ROC_DSF_PER2</t>
+  </si>
+  <si>
+    <t>BPL</t>
+  </si>
+  <si>
+    <t>BPL_SRC_Daily</t>
+  </si>
+  <si>
+    <t>SDO</t>
+  </si>
+  <si>
+    <t>SDO_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>PPS_DSF_MONTHLY_ADJ_ACCT_COLL_INFO_T3C</t>
+  </si>
+  <si>
+    <t>BCS</t>
+  </si>
+  <si>
+    <t>BCS_SRC_Daily</t>
+  </si>
+  <si>
+    <t>GCS_SRC_Monthly</t>
+  </si>
+  <si>
+    <t>BIFI_SRC_Monthly</t>
+  </si>
+  <si>
+    <t>SCBL_DSF_PARAM_DAILY</t>
+  </si>
+  <si>
+    <t>ST_SRC_Per</t>
+  </si>
+  <si>
+    <t>IPS_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>EDW_SFC_DSF_DAILY</t>
+  </si>
+  <si>
+    <t>EDW_SCRUB_RM_DAILY</t>
+  </si>
+  <si>
+    <t>FAT_DSF_PERREQUEST</t>
+  </si>
+  <si>
+    <t>EDW_B2K_DSF_EXTERNAL</t>
+  </si>
+  <si>
+    <t>EPPD</t>
+  </si>
+  <si>
+    <t>EPPD_SRC_Daily</t>
+  </si>
+  <si>
+    <t>5DSF_DSF_PER</t>
+  </si>
+  <si>
+    <t>CBOS_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>FES_SRC_Daily</t>
+  </si>
+  <si>
+    <t>EDW_SFC_SOURCE_WEEKLY2</t>
+  </si>
+  <si>
+    <t>EDW_ML_EXTERNAL_DAILY</t>
+  </si>
+  <si>
+    <t>ETAX</t>
+  </si>
+  <si>
+    <t>ETAX_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>LOS_DSF_Daily</t>
+  </si>
+  <si>
+    <t>FAT_SRC_WEEKLY</t>
+  </si>
+  <si>
+    <t>EDW_B2K_DSF_MTH3</t>
+  </si>
+  <si>
+    <t>SCF_SRC_Per</t>
+  </si>
+  <si>
+    <t>AM_SRC_Per_CARDX</t>
+  </si>
+  <si>
+    <t>OBR</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>CRM_DSF_Monthly</t>
+  </si>
+  <si>
+    <t>EDW_GNL_DSF_DAILY</t>
+  </si>
+  <si>
+    <t>ODS_DSF_PER</t>
+  </si>
+  <si>
+    <t>EDW_SBG_DSF_PERREQUEST</t>
+  </si>
+  <si>
+    <t>ATM_SRC_Monthly</t>
+  </si>
+  <si>
+    <t>PPS_DSF_MONTHLY_ADJ_ACCT_COLL_INFO_T3B</t>
+  </si>
+  <si>
+    <t>FAT_SRC_PERREQUEST2</t>
+  </si>
+  <si>
+    <t>WINP</t>
+  </si>
+  <si>
+    <t>WINP_SRC_WEEKLY</t>
+  </si>
+  <si>
+    <t>PPS_DSF_PERREQUEST</t>
+  </si>
+  <si>
+    <t>EDW_GNL_DSF_DAILY2</t>
+  </si>
+  <si>
+    <t>CSS_DSF_PER</t>
+  </si>
+  <si>
+    <t>ICORE</t>
+  </si>
+  <si>
+    <t>ICORE_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>DTC</t>
+  </si>
+  <si>
+    <t>DTC_SRC_DAILY</t>
+  </si>
+  <si>
+    <t>CIM_DSF_Monthly</t>
+  </si>
+  <si>
+    <t>EDW_MCS_DSF_PREVMTH_1</t>
+  </si>
+  <si>
+    <t>ICAS_SRC_DAILY_MF</t>
+  </si>
+  <si>
+    <t>DMS_DSF_MONTHLY_CARDX</t>
+  </si>
+  <si>
+    <t>DMS_DSF_EXTERNAL_MON</t>
+  </si>
+  <si>
+    <t>EDM</t>
+  </si>
+  <si>
+    <t>EDW_EDM_PERREQUEST</t>
+  </si>
+  <si>
+    <t>EDW_SCRUB_MONTHLY</t>
+  </si>
+  <si>
+    <t>DMS_DSF_GL_CLOSING</t>
+  </si>
+  <si>
+    <t>LLFP_DSF_MONTHLY</t>
+  </si>
+  <si>
+    <t>OFSAA</t>
+  </si>
+  <si>
+    <t>OFSAA_SRC_MONTHLY</t>
+  </si>
+  <si>
+    <t>EDW_EDM_MONTHLY</t>
+  </si>
+  <si>
+    <t>DMS_DSF_MONTHLY_LCS</t>
+  </si>
+  <si>
+    <t>ROC_DSF_DAILY</t>
+  </si>
+  <si>
+    <t>EDW_ESL_MONTHLY_CC</t>
+  </si>
+  <si>
+    <t>IVC</t>
+  </si>
+  <si>
+    <t>EDW_IVC_DAILY</t>
+  </si>
+  <si>
+    <t>LOS_SRC_Monthly</t>
+  </si>
+  <si>
+    <t>SIP</t>
+  </si>
+  <si>
+    <t>SIP_SRC_Daily</t>
+  </si>
+  <si>
+    <t>ODS_DSF_MONTHLY_LM</t>
+  </si>
+  <si>
+    <t>SC_DSF_DAILY</t>
+  </si>
+  <si>
+    <t>RDS_DSF_DAILY</t>
+  </si>
+  <si>
+    <t>CSM_SRC_Weekly</t>
+  </si>
+  <si>
+    <t>EDW_BKL_EXTERNAL</t>
+  </si>
+  <si>
+    <t>RSK_DSF_Monthly</t>
   </si>
 </sst>
 </file>
@@ -812,7 +2012,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1219,11 +2418,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:D783"/>
+  <dimension ref="A1:D779"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
+      <pane ySplit="1" topLeftCell="A469" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B472" sqref="B472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1231,7 +2430,7 @@
     <col min="1" max="1" width="38.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1251,7 +2450,7 @@
     </row>
     <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1260,12 +2459,12 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1274,12 +2473,12 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1288,12 +2487,12 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1302,12 +2501,12 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1316,12 +2515,12 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1330,12 +2529,12 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1344,12 +2543,12 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1358,12 +2557,12 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -1372,12 +2571,12 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -1386,12 +2585,12 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -1400,12 +2599,12 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -1414,12 +2613,12 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -1428,12 +2627,12 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -1442,12 +2641,12 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -1456,12 +2655,12 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -1470,12 +2669,12 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -1484,12 +2683,12 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -1498,12 +2697,12 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -1512,12 +2711,12 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>204</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -1526,12 +2725,12 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -1540,12 +2739,12 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -1554,12 +2753,12 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -1568,12 +2767,12 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -1582,12 +2781,12 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -1596,12 +2795,12 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -1610,12 +2809,12 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -1624,12 +2823,12 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -1638,12 +2837,12 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -1652,12 +2851,12 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>241</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -1666,12 +2865,12 @@
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>157</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -1680,12 +2879,12 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -1694,12 +2893,12 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -1708,12 +2907,12 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -1722,12 +2921,12 @@
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -1736,12 +2935,12 @@
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -1750,12 +2949,12 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -1764,12 +2963,12 @@
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -1778,12 +2977,12 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -1792,12 +2991,12 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>208</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -1806,12 +3005,12 @@
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -1820,12 +3019,12 @@
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -1834,12 +3033,12 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -1848,12 +3047,12 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -1862,12 +3061,12 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -1876,12 +3075,12 @@
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -1890,12 +3089,12 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>210</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -1904,12 +3103,12 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>211</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -1918,12 +3117,12 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -1932,12 +3131,12 @@
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -1946,7 +3145,7 @@
         <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1979,7 +3178,7 @@
     </row>
     <row r="54" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -1988,12 +3187,12 @@
         <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -2002,12 +3201,12 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
@@ -2016,12 +3215,12 @@
         <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>212</v>
+        <v>94</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
@@ -2030,12 +3229,12 @@
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -2044,12 +3243,12 @@
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>239</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -2058,12 +3257,12 @@
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
@@ -2072,12 +3271,12 @@
         <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -2086,12 +3285,12 @@
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>139</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
@@ -2100,12 +3299,12 @@
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
@@ -2114,12 +3313,12 @@
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -2128,12 +3327,12 @@
         <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -2142,12 +3341,12 @@
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -2156,12 +3355,12 @@
         <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -2170,12 +3369,12 @@
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -2184,12 +3383,12 @@
         <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -2198,12 +3397,12 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
@@ -2212,12 +3411,12 @@
         <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -2226,12 +3425,12 @@
         <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
@@ -2240,12 +3439,12 @@
         <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>242</v>
+        <v>14</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -2254,12 +3453,12 @@
         <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>243</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
@@ -2268,12 +3467,12 @@
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>213</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -2282,12 +3481,12 @@
         <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
@@ -2296,12 +3495,12 @@
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -2310,12 +3509,12 @@
         <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
@@ -2324,12 +3523,12 @@
         <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>127</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
@@ -2338,12 +3537,12 @@
         <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
@@ -2352,12 +3551,12 @@
         <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
@@ -2366,12 +3565,12 @@
         <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -2380,12 +3579,12 @@
         <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -2394,12 +3593,12 @@
         <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>115</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
@@ -2408,12 +3607,12 @@
         <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -2422,12 +3621,12 @@
         <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -2436,12 +3635,12 @@
         <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>215</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>216</v>
+        <v>18</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
@@ -2450,12 +3649,12 @@
         <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>217</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
@@ -2464,12 +3663,12 @@
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -2478,12 +3677,12 @@
         <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -2492,12 +3691,12 @@
         <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
@@ -2506,12 +3705,12 @@
         <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>221</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
@@ -2520,12 +3719,12 @@
         <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>218</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
@@ -2534,1110 +3733,6141 @@
         <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>247</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>91</v>
+        <v>248</v>
       </c>
       <c r="D94" t="s">
-        <v>142</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>91</v>
+        <v>248</v>
       </c>
       <c r="D95" t="s">
-        <v>160</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D96" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
     </row>
     <row r="97" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>180</v>
+        <v>253</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D97" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D98" t="s">
-        <v>130</v>
+        <v>254</v>
       </c>
     </row>
     <row r="99" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>179</v>
+        <v>255</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D99" t="s">
-        <v>163</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>36</v>
+        <v>257</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D100" t="s">
-        <v>130</v>
+        <v>258</v>
       </c>
     </row>
     <row r="101" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D101" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
     </row>
     <row r="102" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="B102" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D102" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
     </row>
     <row r="103" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D103" t="s">
-        <v>106</v>
+        <v>262</v>
       </c>
     </row>
     <row r="104" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D104" t="s">
-        <v>106</v>
+        <v>264</v>
       </c>
     </row>
     <row r="105" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D105" t="s">
-        <v>176</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D106" t="s">
-        <v>206</v>
+        <v>268</v>
       </c>
     </row>
     <row r="107" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D107" t="s">
-        <v>141</v>
+        <v>269</v>
       </c>
     </row>
     <row r="108" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>29</v>
+        <v>270</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D108" t="s">
-        <v>130</v>
+        <v>271</v>
       </c>
     </row>
     <row r="109" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D109" t="s">
-        <v>141</v>
+        <v>272</v>
       </c>
     </row>
     <row r="110" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>72</v>
+        <v>273</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D110" t="s">
-        <v>175</v>
+        <v>274</v>
       </c>
     </row>
     <row r="111" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D111" t="s">
-        <v>213</v>
+        <v>275</v>
       </c>
     </row>
     <row r="112" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D112" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>177</v>
+        <v>276</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D113" t="s">
-        <v>178</v>
+        <v>277</v>
       </c>
     </row>
     <row r="114" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>30</v>
+        <v>278</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D114" t="s">
-        <v>130</v>
+        <v>279</v>
       </c>
     </row>
     <row r="115" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="B115" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D115" t="s">
-        <v>130</v>
+        <v>281</v>
       </c>
     </row>
     <row r="116" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>34</v>
+        <v>282</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D116" t="s">
-        <v>130</v>
+        <v>283</v>
       </c>
     </row>
     <row r="117" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>71</v>
+        <v>284</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D117" t="s">
-        <v>125</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="B118" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D118" t="s">
-        <v>130</v>
+        <v>286</v>
       </c>
     </row>
     <row r="119" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D119" t="s">
-        <v>130</v>
+        <v>213</v>
       </c>
     </row>
     <row r="120" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="D120" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="D121" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="122" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>62</v>
+        <v>287</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="D122" t="s">
-        <v>141</v>
+        <v>288</v>
       </c>
     </row>
     <row r="123" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="D123" t="s">
-        <v>160</v>
+        <v>289</v>
       </c>
     </row>
     <row r="124" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>67</v>
+        <v>290</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="D124" t="s">
-        <v>130</v>
+        <v>291</v>
       </c>
     </row>
     <row r="125" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>66</v>
+        <v>282</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="D125" t="s">
-        <v>130</v>
+        <v>292</v>
       </c>
     </row>
     <row r="126" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="D126" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>53</v>
+        <v>293</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="D127" t="s">
-        <v>130</v>
+        <v>294</v>
       </c>
     </row>
     <row r="128" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>63</v>
+        <v>295</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="D128" t="s">
-        <v>130</v>
+        <v>296</v>
       </c>
     </row>
     <row r="129" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="D129" t="s">
-        <v>106</v>
+        <v>207</v>
       </c>
     </row>
     <row r="130" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="D130" t="s">
-        <v>130</v>
+        <v>214</v>
       </c>
     </row>
     <row r="131" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>60</v>
+        <v>297</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="D131" t="s">
-        <v>130</v>
+        <v>298</v>
       </c>
     </row>
     <row r="132" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>58</v>
+        <v>299</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="D132" t="s">
-        <v>130</v>
+        <v>300</v>
       </c>
     </row>
     <row r="133" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>69</v>
+        <v>301</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="D133" t="s">
-        <v>130</v>
+        <v>302</v>
       </c>
     </row>
     <row r="134" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="D134" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="135" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="D135" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="136" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="D136" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>57</v>
+        <v>282</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="D137" t="s">
-        <v>130</v>
+        <v>303</v>
       </c>
     </row>
     <row r="138" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="D138" t="s">
-        <v>144</v>
+        <v>217</v>
       </c>
     </row>
     <row r="139" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>96</v>
-      </c>
-      <c r="B139" t="s">
-        <v>7</v>
-      </c>
-      <c r="C139" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" t="s">
-        <v>160</v>
+      <c r="A139" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="140" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>65</v>
+        <v>257</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="D140" t="s">
-        <v>130</v>
+        <v>304</v>
       </c>
     </row>
     <row r="141" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="D141" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="142" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>207</v>
+      <c r="A142" t="s">
+        <v>247</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>248</v>
+      </c>
+      <c r="D142" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="143" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>19</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>248</v>
+      </c>
+      <c r="D143" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>306</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>248</v>
+      </c>
+      <c r="D144" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>308</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>248</v>
+      </c>
+      <c r="D145" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>306</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>248</v>
+      </c>
+      <c r="D146" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>311</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>248</v>
+      </c>
+      <c r="D147" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>313</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>248</v>
+      </c>
+      <c r="D148" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>21</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" t="s">
+        <v>248</v>
+      </c>
+      <c r="D149" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>88</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>248</v>
+      </c>
+      <c r="D150" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>260</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>248</v>
+      </c>
+      <c r="D151" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>276</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>248</v>
+      </c>
+      <c r="D152" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>318</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>248</v>
+      </c>
+      <c r="D153" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>50</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>248</v>
+      </c>
+      <c r="D154" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>199</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>248</v>
+      </c>
+      <c r="D155" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>287</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" t="s">
+        <v>248</v>
+      </c>
+      <c r="D156" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>11</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>248</v>
+      </c>
+      <c r="D157" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>20</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" t="s">
+        <v>248</v>
+      </c>
+      <c r="D158" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>321</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" t="s">
+        <v>248</v>
+      </c>
+      <c r="D159" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>257</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>248</v>
+      </c>
+      <c r="D160" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>324</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>248</v>
+      </c>
+      <c r="D161" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>326</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" t="s">
+        <v>248</v>
+      </c>
+      <c r="D162" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>328</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>248</v>
+      </c>
+      <c r="D163" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>328</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>248</v>
+      </c>
+      <c r="D164" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>78</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>248</v>
+      </c>
+      <c r="D165" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>95</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>248</v>
+      </c>
+      <c r="D166" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>331</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" t="s">
+        <v>248</v>
+      </c>
+      <c r="D167" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>333</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>248</v>
+      </c>
+      <c r="D168" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>335</v>
+      </c>
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>248</v>
+      </c>
+      <c r="D169" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" t="s">
+        <v>248</v>
+      </c>
+      <c r="D170" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>257</v>
+      </c>
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>248</v>
+      </c>
+      <c r="D171" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>81</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>248</v>
+      </c>
+      <c r="D172" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>337</v>
+      </c>
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" t="s">
+        <v>248</v>
+      </c>
+      <c r="D173" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>255</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" t="s">
+        <v>248</v>
+      </c>
+      <c r="D174" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>290</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>248</v>
+      </c>
+      <c r="D175" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>22</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" t="s">
+        <v>248</v>
+      </c>
+      <c r="D176" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>255</v>
+      </c>
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" t="s">
+        <v>248</v>
+      </c>
+      <c r="D177" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>333</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" t="s">
+        <v>248</v>
+      </c>
+      <c r="D178" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>85</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>248</v>
+      </c>
+      <c r="D179" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>343</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" t="s">
+        <v>248</v>
+      </c>
+      <c r="D180" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>257</v>
+      </c>
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>248</v>
+      </c>
+      <c r="D181" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>257</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>248</v>
+      </c>
+      <c r="D182" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>347</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>248</v>
+      </c>
+      <c r="D183" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>331</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>248</v>
+      </c>
+      <c r="D184" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>82</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" t="s">
+        <v>248</v>
+      </c>
+      <c r="D185" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>306</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>248</v>
+      </c>
+      <c r="D186" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>351</v>
+      </c>
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" t="s">
+        <v>248</v>
+      </c>
+      <c r="D187" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>353</v>
+      </c>
+      <c r="B188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>248</v>
+      </c>
+      <c r="D188" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>355</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>248</v>
+      </c>
+      <c r="D189" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>357</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>248</v>
+      </c>
+      <c r="D190" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>295</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>248</v>
+      </c>
+      <c r="D191" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>337</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" t="s">
+        <v>248</v>
+      </c>
+      <c r="D192" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>219</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>248</v>
+      </c>
+      <c r="D193" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>257</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>248</v>
+      </c>
+      <c r="D194" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>297</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>248</v>
+      </c>
+      <c r="D195" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>19</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>248</v>
+      </c>
+      <c r="D196" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>331</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>248</v>
+      </c>
+      <c r="D197" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>365</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>248</v>
+      </c>
+      <c r="D198" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>367</v>
+      </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199" t="s">
+        <v>248</v>
+      </c>
+      <c r="D199" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>242</v>
+      </c>
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" t="s">
+        <v>248</v>
+      </c>
+      <c r="D200" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>370</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" t="s">
+        <v>248</v>
+      </c>
+      <c r="D201" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>372</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>248</v>
+      </c>
+      <c r="D202" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>50</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" t="s">
+        <v>248</v>
+      </c>
+      <c r="D203" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>373</v>
+      </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" t="s">
+        <v>248</v>
+      </c>
+      <c r="D204" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>375</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" t="s">
+        <v>248</v>
+      </c>
+      <c r="D205" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>297</v>
+      </c>
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206" t="s">
+        <v>248</v>
+      </c>
+      <c r="D206" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>45</v>
+      </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" t="s">
+        <v>248</v>
+      </c>
+      <c r="D207" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>247</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208" t="s">
+        <v>248</v>
+      </c>
+      <c r="D208" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>242</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>248</v>
+      </c>
+      <c r="D209" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>293</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>248</v>
+      </c>
+      <c r="D210" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>242</v>
+      </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" t="s">
+        <v>248</v>
+      </c>
+      <c r="D211" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>23</v>
+      </c>
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" t="s">
+        <v>248</v>
+      </c>
+      <c r="D212" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>328</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>248</v>
+      </c>
+      <c r="D213" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>74</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>248</v>
+      </c>
+      <c r="D214" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>25</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>248</v>
+      </c>
+      <c r="D215" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>11</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>248</v>
+      </c>
+      <c r="D216" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>385</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>248</v>
+      </c>
+      <c r="D217" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>387</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>248</v>
+      </c>
+      <c r="D218" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>47</v>
+      </c>
+      <c r="B219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C219" t="s">
+        <v>248</v>
+      </c>
+      <c r="D219" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>389</v>
+      </c>
+      <c r="B220" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220" t="s">
+        <v>248</v>
+      </c>
+      <c r="D220" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>212</v>
+      </c>
+      <c r="B221" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221" t="s">
+        <v>248</v>
+      </c>
+      <c r="D221" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>343</v>
+      </c>
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" t="s">
+        <v>248</v>
+      </c>
+      <c r="D222" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>49</v>
+      </c>
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223" t="s">
+        <v>248</v>
+      </c>
+      <c r="D223" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>276</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
+        <v>248</v>
+      </c>
+      <c r="D224" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>22</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" t="s">
+        <v>248</v>
+      </c>
+      <c r="D225" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>13</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226" t="s">
+        <v>248</v>
+      </c>
+      <c r="D226" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>347</v>
+      </c>
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" t="s">
+        <v>248</v>
+      </c>
+      <c r="D227" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>328</v>
+      </c>
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228" t="s">
+        <v>248</v>
+      </c>
+      <c r="D228" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>255</v>
+      </c>
+      <c r="B229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229" t="s">
+        <v>248</v>
+      </c>
+      <c r="D229" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>212</v>
+      </c>
+      <c r="B230" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230" t="s">
+        <v>248</v>
+      </c>
+      <c r="D230" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>313</v>
+      </c>
+      <c r="B231" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231" t="s">
+        <v>248</v>
+      </c>
+      <c r="D231" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>46</v>
+      </c>
+      <c r="B232" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232" t="s">
+        <v>248</v>
+      </c>
+      <c r="D232" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>401</v>
+      </c>
+      <c r="B233" t="s">
+        <v>5</v>
+      </c>
+      <c r="C233" t="s">
+        <v>248</v>
+      </c>
+      <c r="D233" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>255</v>
+      </c>
+      <c r="B234" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234" t="s">
+        <v>248</v>
+      </c>
+      <c r="D234" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>16</v>
+      </c>
+      <c r="B235" t="s">
+        <v>5</v>
+      </c>
+      <c r="C235" t="s">
+        <v>248</v>
+      </c>
+      <c r="D235" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>14</v>
+      </c>
+      <c r="B236" t="s">
+        <v>5</v>
+      </c>
+      <c r="C236" t="s">
+        <v>248</v>
+      </c>
+      <c r="D236" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>331</v>
+      </c>
+      <c r="B237" t="s">
+        <v>5</v>
+      </c>
+      <c r="C237" t="s">
+        <v>248</v>
+      </c>
+      <c r="D237" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>48</v>
+      </c>
+      <c r="B238" t="s">
+        <v>5</v>
+      </c>
+      <c r="C238" t="s">
+        <v>248</v>
+      </c>
+      <c r="D238" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>92</v>
+      </c>
+      <c r="B239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" t="s">
+        <v>248</v>
+      </c>
+      <c r="D239" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>48</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240" t="s">
+        <v>248</v>
+      </c>
+      <c r="D240" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>13</v>
+      </c>
+      <c r="B241" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241" t="s">
+        <v>248</v>
+      </c>
+      <c r="D241" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>357</v>
+      </c>
+      <c r="B242" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242" t="s">
+        <v>248</v>
+      </c>
+      <c r="D242" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>333</v>
+      </c>
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243" t="s">
+        <v>248</v>
+      </c>
+      <c r="D243" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>306</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244" t="s">
+        <v>248</v>
+      </c>
+      <c r="D244" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>46</v>
+      </c>
+      <c r="B245" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245" t="s">
+        <v>248</v>
+      </c>
+      <c r="D245" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>328</v>
+      </c>
+      <c r="B246" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246" t="s">
+        <v>248</v>
+      </c>
+      <c r="D246" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>13</v>
+      </c>
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" t="s">
+        <v>248</v>
+      </c>
+      <c r="D247" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>77</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" t="s">
+        <v>248</v>
+      </c>
+      <c r="D248" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>414</v>
+      </c>
+      <c r="B249" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" t="s">
+        <v>248</v>
+      </c>
+      <c r="D249" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>255</v>
+      </c>
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250" t="s">
+        <v>248</v>
+      </c>
+      <c r="D250" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>13</v>
+      </c>
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251" t="s">
+        <v>248</v>
+      </c>
+      <c r="D251" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>417</v>
+      </c>
+      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" t="s">
+        <v>248</v>
+      </c>
+      <c r="D252" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>257</v>
+      </c>
+      <c r="B253" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253" t="s">
+        <v>248</v>
+      </c>
+      <c r="D253" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>242</v>
+      </c>
+      <c r="B254" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254" t="s">
+        <v>248</v>
+      </c>
+      <c r="D254" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>265</v>
+      </c>
+      <c r="B255" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255" t="s">
+        <v>248</v>
+      </c>
+      <c r="D255" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>49</v>
+      </c>
+      <c r="B256" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256" t="s">
+        <v>248</v>
+      </c>
+      <c r="D256" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>306</v>
+      </c>
+      <c r="B257" t="s">
+        <v>5</v>
+      </c>
+      <c r="C257" t="s">
+        <v>248</v>
+      </c>
+      <c r="D257" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>423</v>
+      </c>
+      <c r="B258" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258" t="s">
+        <v>248</v>
+      </c>
+      <c r="D258" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>425</v>
+      </c>
+      <c r="B259" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259" t="s">
+        <v>248</v>
+      </c>
+      <c r="D259" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>331</v>
+      </c>
+      <c r="B260" t="s">
+        <v>5</v>
+      </c>
+      <c r="C260" t="s">
+        <v>248</v>
+      </c>
+      <c r="D260" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>337</v>
+      </c>
+      <c r="B261" t="s">
+        <v>5</v>
+      </c>
+      <c r="C261" t="s">
+        <v>248</v>
+      </c>
+      <c r="D261" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>81</v>
+      </c>
+      <c r="B262" t="s">
+        <v>5</v>
+      </c>
+      <c r="C262" t="s">
+        <v>248</v>
+      </c>
+      <c r="D262" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>93</v>
+      </c>
+      <c r="B263" t="s">
+        <v>5</v>
+      </c>
+      <c r="C263" t="s">
+        <v>248</v>
+      </c>
+      <c r="D263" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>12</v>
+      </c>
+      <c r="B264" t="s">
+        <v>5</v>
+      </c>
+      <c r="C264" t="s">
+        <v>248</v>
+      </c>
+      <c r="D264" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>201</v>
+      </c>
+      <c r="B265" t="s">
+        <v>5</v>
+      </c>
+      <c r="C265" t="s">
+        <v>248</v>
+      </c>
+      <c r="D265" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>267</v>
+      </c>
+      <c r="B266" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266" t="s">
+        <v>248</v>
+      </c>
+      <c r="D266" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>13</v>
+      </c>
+      <c r="B267" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267" t="s">
+        <v>248</v>
+      </c>
+      <c r="D267" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>92</v>
+      </c>
+      <c r="B268" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268" t="s">
+        <v>248</v>
+      </c>
+      <c r="D268" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>15</v>
+      </c>
+      <c r="B269" t="s">
+        <v>5</v>
+      </c>
+      <c r="C269" t="s">
+        <v>248</v>
+      </c>
+      <c r="D269" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>335</v>
+      </c>
+      <c r="B270" t="s">
+        <v>5</v>
+      </c>
+      <c r="C270" t="s">
+        <v>248</v>
+      </c>
+      <c r="D270" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>331</v>
+      </c>
+      <c r="B271" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271" t="s">
+        <v>248</v>
+      </c>
+      <c r="D271" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>436</v>
+      </c>
+      <c r="B272" t="s">
+        <v>5</v>
+      </c>
+      <c r="C272" t="s">
+        <v>248</v>
+      </c>
+      <c r="D272" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>26</v>
+      </c>
+      <c r="B273" t="s">
+        <v>5</v>
+      </c>
+      <c r="C273" t="s">
+        <v>248</v>
+      </c>
+      <c r="D273" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>439</v>
+      </c>
+      <c r="B274" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274" t="s">
+        <v>248</v>
+      </c>
+      <c r="D274" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>440</v>
+      </c>
+      <c r="B275" t="s">
+        <v>5</v>
+      </c>
+      <c r="C275" t="s">
+        <v>248</v>
+      </c>
+      <c r="D275" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>92</v>
+      </c>
+      <c r="B276" t="s">
+        <v>5</v>
+      </c>
+      <c r="C276" t="s">
+        <v>248</v>
+      </c>
+      <c r="D276" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>77</v>
+      </c>
+      <c r="B277" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277" t="s">
+        <v>248</v>
+      </c>
+      <c r="D277" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>9</v>
+      </c>
+      <c r="B278" t="s">
+        <v>5</v>
+      </c>
+      <c r="C278" t="s">
+        <v>248</v>
+      </c>
+      <c r="D278" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>443</v>
+      </c>
+      <c r="B279" t="s">
+        <v>5</v>
+      </c>
+      <c r="C279" t="s">
+        <v>248</v>
+      </c>
+      <c r="D279" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>445</v>
+      </c>
+      <c r="B280" t="s">
+        <v>5</v>
+      </c>
+      <c r="C280" t="s">
+        <v>248</v>
+      </c>
+      <c r="D280" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>447</v>
+      </c>
+      <c r="B281" t="s">
+        <v>5</v>
+      </c>
+      <c r="C281" t="s">
+        <v>248</v>
+      </c>
+      <c r="D281" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>331</v>
+      </c>
+      <c r="B282" t="s">
+        <v>5</v>
+      </c>
+      <c r="C282" t="s">
+        <v>248</v>
+      </c>
+      <c r="D282" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>74</v>
+      </c>
+      <c r="B283" t="s">
+        <v>5</v>
+      </c>
+      <c r="C283" t="s">
+        <v>248</v>
+      </c>
+      <c r="D283" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>331</v>
+      </c>
+      <c r="B284" t="s">
+        <v>5</v>
+      </c>
+      <c r="C284" t="s">
+        <v>248</v>
+      </c>
+      <c r="D284" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>451</v>
+      </c>
+      <c r="B285" t="s">
+        <v>5</v>
+      </c>
+      <c r="C285" t="s">
+        <v>248</v>
+      </c>
+      <c r="D285" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>46</v>
+      </c>
+      <c r="B286" t="s">
+        <v>5</v>
+      </c>
+      <c r="C286" t="s">
+        <v>248</v>
+      </c>
+      <c r="D286" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>86</v>
+      </c>
+      <c r="B287" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287" t="s">
+        <v>248</v>
+      </c>
+      <c r="D287" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>414</v>
+      </c>
+      <c r="B288" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288" t="s">
+        <v>248</v>
+      </c>
+      <c r="D288" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>454</v>
+      </c>
+      <c r="B289" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289" t="s">
+        <v>248</v>
+      </c>
+      <c r="D289" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>297</v>
+      </c>
+      <c r="B290" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290" t="s">
+        <v>248</v>
+      </c>
+      <c r="D290" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>457</v>
+      </c>
+      <c r="B291" t="s">
+        <v>5</v>
+      </c>
+      <c r="C291" t="s">
+        <v>248</v>
+      </c>
+      <c r="D291" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>328</v>
+      </c>
+      <c r="B292" t="s">
+        <v>5</v>
+      </c>
+      <c r="C292" t="s">
+        <v>248</v>
+      </c>
+      <c r="D292" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>331</v>
+      </c>
+      <c r="B293" t="s">
+        <v>5</v>
+      </c>
+      <c r="C293" t="s">
+        <v>248</v>
+      </c>
+      <c r="D293" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>461</v>
+      </c>
+      <c r="B294" t="s">
+        <v>5</v>
+      </c>
+      <c r="C294" t="s">
+        <v>248</v>
+      </c>
+      <c r="D294" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>14</v>
+      </c>
+      <c r="B295" t="s">
+        <v>5</v>
+      </c>
+      <c r="C295" t="s">
+        <v>248</v>
+      </c>
+      <c r="D295" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>21</v>
+      </c>
+      <c r="B296" t="s">
+        <v>5</v>
+      </c>
+      <c r="C296" t="s">
+        <v>248</v>
+      </c>
+      <c r="D296" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>257</v>
+      </c>
+      <c r="B297" t="s">
+        <v>5</v>
+      </c>
+      <c r="C297" t="s">
+        <v>248</v>
+      </c>
+      <c r="D297" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>466</v>
+      </c>
+      <c r="B298" t="s">
+        <v>5</v>
+      </c>
+      <c r="C298" t="s">
+        <v>248</v>
+      </c>
+      <c r="D298" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>26</v>
+      </c>
+      <c r="B299" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299" t="s">
+        <v>248</v>
+      </c>
+      <c r="D299" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>468</v>
+      </c>
+      <c r="B300" t="s">
+        <v>5</v>
+      </c>
+      <c r="C300" t="s">
+        <v>248</v>
+      </c>
+      <c r="D300" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>372</v>
+      </c>
+      <c r="B301" t="s">
+        <v>5</v>
+      </c>
+      <c r="C301" t="s">
+        <v>248</v>
+      </c>
+      <c r="D301" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>443</v>
+      </c>
+      <c r="B302" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302" t="s">
+        <v>248</v>
+      </c>
+      <c r="D302" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>46</v>
+      </c>
+      <c r="B303" t="s">
+        <v>5</v>
+      </c>
+      <c r="C303" t="s">
+        <v>248</v>
+      </c>
+      <c r="D303" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>473</v>
+      </c>
+      <c r="B304" t="s">
+        <v>5</v>
+      </c>
+      <c r="C304" t="s">
+        <v>248</v>
+      </c>
+      <c r="D304" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>205</v>
+      </c>
+      <c r="B305" t="s">
+        <v>5</v>
+      </c>
+      <c r="C305" t="s">
+        <v>248</v>
+      </c>
+      <c r="D305" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>475</v>
+      </c>
+      <c r="B306" t="s">
+        <v>5</v>
+      </c>
+      <c r="C306" t="s">
+        <v>248</v>
+      </c>
+      <c r="D306" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>295</v>
+      </c>
+      <c r="B307" t="s">
+        <v>5</v>
+      </c>
+      <c r="C307" t="s">
+        <v>248</v>
+      </c>
+      <c r="D307" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>25</v>
+      </c>
+      <c r="B308" t="s">
+        <v>5</v>
+      </c>
+      <c r="C308" t="s">
+        <v>248</v>
+      </c>
+      <c r="D308" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>92</v>
+      </c>
+      <c r="B309" t="s">
+        <v>5</v>
+      </c>
+      <c r="C309" t="s">
+        <v>248</v>
+      </c>
+      <c r="D309" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>479</v>
+      </c>
+      <c r="B310" t="s">
+        <v>5</v>
+      </c>
+      <c r="C310" t="s">
+        <v>248</v>
+      </c>
+      <c r="D310" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>74</v>
+      </c>
+      <c r="B311" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311" t="s">
+        <v>248</v>
+      </c>
+      <c r="D311" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>255</v>
+      </c>
+      <c r="B312" t="s">
+        <v>5</v>
+      </c>
+      <c r="C312" t="s">
+        <v>248</v>
+      </c>
+      <c r="D312" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>483</v>
+      </c>
+      <c r="B313" t="s">
+        <v>5</v>
+      </c>
+      <c r="C313" t="s">
+        <v>248</v>
+      </c>
+      <c r="D313" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>331</v>
+      </c>
+      <c r="B314" t="s">
+        <v>5</v>
+      </c>
+      <c r="C314" t="s">
+        <v>248</v>
+      </c>
+      <c r="D314" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>82</v>
+      </c>
+      <c r="B315" t="s">
+        <v>5</v>
+      </c>
+      <c r="C315" t="s">
+        <v>248</v>
+      </c>
+      <c r="D315" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>385</v>
+      </c>
+      <c r="B316" t="s">
+        <v>5</v>
+      </c>
+      <c r="C316" t="s">
+        <v>248</v>
+      </c>
+      <c r="D316" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>17</v>
+      </c>
+      <c r="B317" t="s">
+        <v>5</v>
+      </c>
+      <c r="C317" t="s">
+        <v>248</v>
+      </c>
+      <c r="D317" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>487</v>
+      </c>
+      <c r="B318" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318" t="s">
+        <v>248</v>
+      </c>
+      <c r="D318" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>16</v>
+      </c>
+      <c r="B319" t="s">
+        <v>5</v>
+      </c>
+      <c r="C319" t="s">
+        <v>248</v>
+      </c>
+      <c r="D319" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>331</v>
+      </c>
+      <c r="B320" t="s">
+        <v>5</v>
+      </c>
+      <c r="C320" t="s">
+        <v>248</v>
+      </c>
+      <c r="D320" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>306</v>
+      </c>
+      <c r="B321" t="s">
+        <v>5</v>
+      </c>
+      <c r="C321" t="s">
+        <v>248</v>
+      </c>
+      <c r="D321" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>491</v>
+      </c>
+      <c r="B322" t="s">
+        <v>5</v>
+      </c>
+      <c r="C322" t="s">
+        <v>248</v>
+      </c>
+      <c r="D322" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>255</v>
+      </c>
+      <c r="B323" t="s">
+        <v>5</v>
+      </c>
+      <c r="C323" t="s">
+        <v>248</v>
+      </c>
+      <c r="D323" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>494</v>
+      </c>
+      <c r="B324" t="s">
+        <v>5</v>
+      </c>
+      <c r="C324" t="s">
+        <v>248</v>
+      </c>
+      <c r="D324" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>27</v>
+      </c>
+      <c r="B325" t="s">
+        <v>5</v>
+      </c>
+      <c r="C325" t="s">
+        <v>248</v>
+      </c>
+      <c r="D325" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>290</v>
+      </c>
+      <c r="B326" t="s">
+        <v>5</v>
+      </c>
+      <c r="C326" t="s">
+        <v>248</v>
+      </c>
+      <c r="D326" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>13</v>
+      </c>
+      <c r="B327" t="s">
+        <v>5</v>
+      </c>
+      <c r="C327" t="s">
+        <v>248</v>
+      </c>
+      <c r="D327" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>498</v>
+      </c>
+      <c r="B328" t="s">
+        <v>5</v>
+      </c>
+      <c r="C328" t="s">
+        <v>248</v>
+      </c>
+      <c r="D328" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>265</v>
+      </c>
+      <c r="B329" t="s">
+        <v>5</v>
+      </c>
+      <c r="C329" t="s">
+        <v>248</v>
+      </c>
+      <c r="D329" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>79</v>
+      </c>
+      <c r="B330" t="s">
+        <v>5</v>
+      </c>
+      <c r="C330" t="s">
+        <v>248</v>
+      </c>
+      <c r="D330" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>501</v>
+      </c>
+      <c r="B331" t="s">
+        <v>5</v>
+      </c>
+      <c r="C331" t="s">
+        <v>248</v>
+      </c>
+      <c r="D331" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>74</v>
+      </c>
+      <c r="B332" t="s">
+        <v>5</v>
+      </c>
+      <c r="C332" t="s">
+        <v>248</v>
+      </c>
+      <c r="D332" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>208</v>
+      </c>
+      <c r="B333" t="s">
+        <v>5</v>
+      </c>
+      <c r="C333" t="s">
+        <v>248</v>
+      </c>
+      <c r="D333" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>308</v>
+      </c>
+      <c r="B334" t="s">
+        <v>5</v>
+      </c>
+      <c r="C334" t="s">
+        <v>248</v>
+      </c>
+      <c r="D334" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>92</v>
+      </c>
+      <c r="B335" t="s">
+        <v>5</v>
+      </c>
+      <c r="C335" t="s">
+        <v>248</v>
+      </c>
+      <c r="D335" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>92</v>
+      </c>
+      <c r="B336" t="s">
+        <v>5</v>
+      </c>
+      <c r="C336" t="s">
+        <v>248</v>
+      </c>
+      <c r="D336" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>507</v>
+      </c>
+      <c r="B337" t="s">
+        <v>5</v>
+      </c>
+      <c r="C337" t="s">
+        <v>248</v>
+      </c>
+      <c r="D337" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>44</v>
+      </c>
+      <c r="B338" t="s">
+        <v>5</v>
+      </c>
+      <c r="C338" t="s">
+        <v>248</v>
+      </c>
+      <c r="D338" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>257</v>
+      </c>
+      <c r="B339" t="s">
+        <v>5</v>
+      </c>
+      <c r="C339" t="s">
+        <v>248</v>
+      </c>
+      <c r="D339" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>255</v>
+      </c>
+      <c r="B340" t="s">
+        <v>5</v>
+      </c>
+      <c r="C340" t="s">
+        <v>248</v>
+      </c>
+      <c r="D340" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>242</v>
+      </c>
+      <c r="B341" t="s">
+        <v>5</v>
+      </c>
+      <c r="C341" t="s">
+        <v>248</v>
+      </c>
+      <c r="D341" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>13</v>
+      </c>
+      <c r="B342" t="s">
+        <v>5</v>
+      </c>
+      <c r="C342" t="s">
+        <v>248</v>
+      </c>
+      <c r="D342" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>83</v>
+      </c>
+      <c r="B343" t="s">
+        <v>5</v>
+      </c>
+      <c r="C343" t="s">
+        <v>248</v>
+      </c>
+      <c r="D343" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>76</v>
+      </c>
+      <c r="B344" t="s">
+        <v>5</v>
+      </c>
+      <c r="C344" t="s">
+        <v>248</v>
+      </c>
+      <c r="D344" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>293</v>
+      </c>
+      <c r="B345" t="s">
+        <v>5</v>
+      </c>
+      <c r="C345" t="s">
+        <v>248</v>
+      </c>
+      <c r="D345" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>514</v>
+      </c>
+      <c r="B346" t="s">
+        <v>5</v>
+      </c>
+      <c r="C346" t="s">
+        <v>248</v>
+      </c>
+      <c r="D346" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>516</v>
+      </c>
+      <c r="B347" t="s">
+        <v>5</v>
+      </c>
+      <c r="C347" t="s">
+        <v>248</v>
+      </c>
+      <c r="D347" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>24</v>
+      </c>
+      <c r="B348" t="s">
+        <v>5</v>
+      </c>
+      <c r="C348" t="s">
+        <v>248</v>
+      </c>
+      <c r="D348" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>519</v>
+      </c>
+      <c r="B349" t="s">
+        <v>5</v>
+      </c>
+      <c r="C349" t="s">
+        <v>248</v>
+      </c>
+      <c r="D349" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>255</v>
+      </c>
+      <c r="B350" t="s">
+        <v>5</v>
+      </c>
+      <c r="C350" t="s">
+        <v>248</v>
+      </c>
+      <c r="D350" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>257</v>
+      </c>
+      <c r="B351" t="s">
+        <v>5</v>
+      </c>
+      <c r="C351" t="s">
+        <v>248</v>
+      </c>
+      <c r="D351" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>523</v>
+      </c>
+      <c r="B352" t="s">
+        <v>5</v>
+      </c>
+      <c r="C352" t="s">
+        <v>248</v>
+      </c>
+      <c r="D352" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>92</v>
+      </c>
+      <c r="B353" t="s">
+        <v>5</v>
+      </c>
+      <c r="C353" t="s">
+        <v>248</v>
+      </c>
+      <c r="D353" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>26</v>
+      </c>
+      <c r="B354" t="s">
+        <v>5</v>
+      </c>
+      <c r="C354" t="s">
+        <v>248</v>
+      </c>
+      <c r="D354" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>337</v>
+      </c>
+      <c r="B355" t="s">
+        <v>5</v>
+      </c>
+      <c r="C355" t="s">
+        <v>248</v>
+      </c>
+      <c r="D355" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>257</v>
+      </c>
+      <c r="B356" t="s">
+        <v>5</v>
+      </c>
+      <c r="C356" t="s">
+        <v>248</v>
+      </c>
+      <c r="D356" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>49</v>
+      </c>
+      <c r="B357" t="s">
+        <v>5</v>
+      </c>
+      <c r="C357" t="s">
+        <v>248</v>
+      </c>
+      <c r="D357" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>507</v>
+      </c>
+      <c r="B358" t="s">
+        <v>5</v>
+      </c>
+      <c r="C358" t="s">
+        <v>248</v>
+      </c>
+      <c r="D358" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>14</v>
+      </c>
+      <c r="B359" t="s">
+        <v>5</v>
+      </c>
+      <c r="C359" t="s">
+        <v>248</v>
+      </c>
+      <c r="D359" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>324</v>
+      </c>
+      <c r="B360" t="s">
+        <v>5</v>
+      </c>
+      <c r="C360" t="s">
+        <v>248</v>
+      </c>
+      <c r="D360" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>44</v>
+      </c>
+      <c r="B361" t="s">
+        <v>5</v>
+      </c>
+      <c r="C361" t="s">
+        <v>248</v>
+      </c>
+      <c r="D361" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>531</v>
+      </c>
+      <c r="B362" t="s">
+        <v>5</v>
+      </c>
+      <c r="C362" t="s">
+        <v>248</v>
+      </c>
+      <c r="D362" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>533</v>
+      </c>
+      <c r="B363" t="s">
+        <v>5</v>
+      </c>
+      <c r="C363" t="s">
+        <v>248</v>
+      </c>
+      <c r="D363" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>507</v>
+      </c>
+      <c r="B364" t="s">
+        <v>5</v>
+      </c>
+      <c r="C364" t="s">
+        <v>248</v>
+      </c>
+      <c r="D364" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>76</v>
+      </c>
+      <c r="B365" t="s">
+        <v>5</v>
+      </c>
+      <c r="C365" t="s">
+        <v>248</v>
+      </c>
+      <c r="D365" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>92</v>
+      </c>
+      <c r="B366" t="s">
+        <v>5</v>
+      </c>
+      <c r="C366" t="s">
+        <v>248</v>
+      </c>
+      <c r="D366" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>247</v>
+      </c>
+      <c r="B367" t="s">
+        <v>5</v>
+      </c>
+      <c r="C367" t="s">
+        <v>248</v>
+      </c>
+      <c r="D367" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>87</v>
+      </c>
+      <c r="B368" t="s">
+        <v>5</v>
+      </c>
+      <c r="C368" t="s">
+        <v>248</v>
+      </c>
+      <c r="D368" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>15</v>
+      </c>
+      <c r="B369" t="s">
+        <v>5</v>
+      </c>
+      <c r="C369" t="s">
+        <v>248</v>
+      </c>
+      <c r="D369" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>22</v>
+      </c>
+      <c r="B370" t="s">
+        <v>5</v>
+      </c>
+      <c r="C370" t="s">
+        <v>248</v>
+      </c>
+      <c r="D370" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>173</v>
+      </c>
+      <c r="B371" t="s">
+        <v>5</v>
+      </c>
+      <c r="C371" t="s">
+        <v>248</v>
+      </c>
+      <c r="D371" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>240</v>
+      </c>
+      <c r="B372" t="s">
+        <v>5</v>
+      </c>
+      <c r="C372" t="s">
+        <v>248</v>
+      </c>
+      <c r="D372" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>10</v>
+      </c>
+      <c r="B373" t="s">
+        <v>5</v>
+      </c>
+      <c r="C373" t="s">
+        <v>248</v>
+      </c>
+      <c r="D373" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>282</v>
+      </c>
+      <c r="B374" t="s">
+        <v>5</v>
+      </c>
+      <c r="C374" t="s">
+        <v>248</v>
+      </c>
+      <c r="D374" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>539</v>
+      </c>
+      <c r="B375" t="s">
+        <v>5</v>
+      </c>
+      <c r="C375" t="s">
+        <v>248</v>
+      </c>
+      <c r="D375" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>27</v>
+      </c>
+      <c r="B376" t="s">
+        <v>5</v>
+      </c>
+      <c r="C376" t="s">
+        <v>248</v>
+      </c>
+      <c r="D376" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>290</v>
+      </c>
+      <c r="B377" t="s">
+        <v>5</v>
+      </c>
+      <c r="C377" t="s">
+        <v>248</v>
+      </c>
+      <c r="D377" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>542</v>
+      </c>
+      <c r="B378" t="s">
+        <v>5</v>
+      </c>
+      <c r="C378" t="s">
+        <v>248</v>
+      </c>
+      <c r="D378" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>46</v>
+      </c>
+      <c r="B379" t="s">
+        <v>5</v>
+      </c>
+      <c r="C379" t="s">
+        <v>248</v>
+      </c>
+      <c r="D379" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>545</v>
+      </c>
+      <c r="B380" t="s">
+        <v>5</v>
+      </c>
+      <c r="C380" t="s">
+        <v>248</v>
+      </c>
+      <c r="D380" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>46</v>
+      </c>
+      <c r="B381" t="s">
+        <v>5</v>
+      </c>
+      <c r="C381" t="s">
+        <v>248</v>
+      </c>
+      <c r="D381" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>523</v>
+      </c>
+      <c r="B382" t="s">
+        <v>5</v>
+      </c>
+      <c r="C382" t="s">
+        <v>248</v>
+      </c>
+      <c r="D382" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>549</v>
+      </c>
+      <c r="B383" t="s">
+        <v>5</v>
+      </c>
+      <c r="C383" t="s">
+        <v>248</v>
+      </c>
+      <c r="D383" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>21</v>
+      </c>
+      <c r="B384" t="s">
+        <v>5</v>
+      </c>
+      <c r="C384" t="s">
+        <v>248</v>
+      </c>
+      <c r="D384" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>551</v>
+      </c>
+      <c r="B385" t="s">
+        <v>5</v>
+      </c>
+      <c r="C385" t="s">
+        <v>248</v>
+      </c>
+      <c r="D385" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>80</v>
+      </c>
+      <c r="B386" t="s">
+        <v>5</v>
+      </c>
+      <c r="C386" t="s">
+        <v>248</v>
+      </c>
+      <c r="D386" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>257</v>
+      </c>
+      <c r="B387" t="s">
+        <v>5</v>
+      </c>
+      <c r="C387" t="s">
+        <v>248</v>
+      </c>
+      <c r="D387" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>494</v>
+      </c>
+      <c r="B388" t="s">
+        <v>5</v>
+      </c>
+      <c r="C388" t="s">
+        <v>248</v>
+      </c>
+      <c r="D388" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>447</v>
+      </c>
+      <c r="B389" t="s">
+        <v>5</v>
+      </c>
+      <c r="C389" t="s">
+        <v>248</v>
+      </c>
+      <c r="D389" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>357</v>
+      </c>
+      <c r="B390" t="s">
+        <v>5</v>
+      </c>
+      <c r="C390" t="s">
+        <v>248</v>
+      </c>
+      <c r="D390" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>257</v>
+      </c>
+      <c r="B391" t="s">
+        <v>5</v>
+      </c>
+      <c r="C391" t="s">
+        <v>248</v>
+      </c>
+      <c r="D391" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>9</v>
+      </c>
+      <c r="B392" t="s">
+        <v>5</v>
+      </c>
+      <c r="C392" t="s">
+        <v>248</v>
+      </c>
+      <c r="D392" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>48</v>
+      </c>
+      <c r="B393" t="s">
+        <v>5</v>
+      </c>
+      <c r="C393" t="s">
+        <v>248</v>
+      </c>
+      <c r="D393" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>84</v>
+      </c>
+      <c r="B394" t="s">
+        <v>5</v>
+      </c>
+      <c r="C394" t="s">
+        <v>248</v>
+      </c>
+      <c r="D394" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>278</v>
+      </c>
+      <c r="B395" t="s">
+        <v>5</v>
+      </c>
+      <c r="C395" t="s">
+        <v>248</v>
+      </c>
+      <c r="D395" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>560</v>
+      </c>
+      <c r="B396" t="s">
+        <v>5</v>
+      </c>
+      <c r="C396" t="s">
+        <v>248</v>
+      </c>
+      <c r="D396" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>19</v>
+      </c>
+      <c r="B397" t="s">
+        <v>5</v>
+      </c>
+      <c r="C397" t="s">
+        <v>248</v>
+      </c>
+      <c r="D397" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>257</v>
+      </c>
+      <c r="B398" t="s">
+        <v>5</v>
+      </c>
+      <c r="C398" t="s">
+        <v>248</v>
+      </c>
+      <c r="D398" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>564</v>
+      </c>
+      <c r="B399" t="s">
+        <v>5</v>
+      </c>
+      <c r="C399" t="s">
+        <v>248</v>
+      </c>
+      <c r="D399" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>10</v>
+      </c>
+      <c r="B400" t="s">
+        <v>5</v>
+      </c>
+      <c r="C400" t="s">
+        <v>248</v>
+      </c>
+      <c r="D400" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>357</v>
+      </c>
+      <c r="B401" t="s">
+        <v>5</v>
+      </c>
+      <c r="C401" t="s">
+        <v>248</v>
+      </c>
+      <c r="D401" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>331</v>
+      </c>
+      <c r="B402" t="s">
+        <v>5</v>
+      </c>
+      <c r="C402" t="s">
+        <v>248</v>
+      </c>
+      <c r="D402" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>447</v>
+      </c>
+      <c r="B403" t="s">
+        <v>5</v>
+      </c>
+      <c r="C403" t="s">
+        <v>248</v>
+      </c>
+      <c r="D403" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>570</v>
+      </c>
+      <c r="B404" t="s">
+        <v>5</v>
+      </c>
+      <c r="C404" t="s">
+        <v>248</v>
+      </c>
+      <c r="D404" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>572</v>
+      </c>
+      <c r="B405" t="s">
+        <v>5</v>
+      </c>
+      <c r="C405" t="s">
+        <v>248</v>
+      </c>
+      <c r="D405" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>331</v>
+      </c>
+      <c r="B406" t="s">
+        <v>5</v>
+      </c>
+      <c r="C406" t="s">
+        <v>248</v>
+      </c>
+      <c r="D406" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>575</v>
+      </c>
+      <c r="B407" t="s">
+        <v>5</v>
+      </c>
+      <c r="C407" t="s">
+        <v>248</v>
+      </c>
+      <c r="D407" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>483</v>
+      </c>
+      <c r="B408" t="s">
+        <v>5</v>
+      </c>
+      <c r="C408" t="s">
+        <v>248</v>
+      </c>
+      <c r="D408" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>76</v>
+      </c>
+      <c r="B409" t="s">
+        <v>5</v>
+      </c>
+      <c r="C409" t="s">
+        <v>248</v>
+      </c>
+      <c r="D409" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>93</v>
+      </c>
+      <c r="B410" t="s">
+        <v>5</v>
+      </c>
+      <c r="C410" t="s">
+        <v>248</v>
+      </c>
+      <c r="D410" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>414</v>
+      </c>
+      <c r="B411" t="s">
+        <v>5</v>
+      </c>
+      <c r="C411" t="s">
+        <v>248</v>
+      </c>
+      <c r="D411" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>83</v>
+      </c>
+      <c r="B412" t="s">
+        <v>5</v>
+      </c>
+      <c r="C412" t="s">
+        <v>248</v>
+      </c>
+      <c r="D412" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>306</v>
+      </c>
+      <c r="B413" t="s">
+        <v>5</v>
+      </c>
+      <c r="C413" t="s">
+        <v>248</v>
+      </c>
+      <c r="D413" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>90</v>
+      </c>
+      <c r="B414" t="s">
+        <v>5</v>
+      </c>
+      <c r="C414" t="s">
+        <v>248</v>
+      </c>
+      <c r="D414" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>461</v>
+      </c>
+      <c r="B415" t="s">
+        <v>5</v>
+      </c>
+      <c r="C415" t="s">
+        <v>248</v>
+      </c>
+      <c r="D415" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>245</v>
+      </c>
+      <c r="B416" t="s">
+        <v>5</v>
+      </c>
+      <c r="C416" t="s">
+        <v>248</v>
+      </c>
+      <c r="D416" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>425</v>
+      </c>
+      <c r="B417" t="s">
+        <v>5</v>
+      </c>
+      <c r="C417" t="s">
+        <v>248</v>
+      </c>
+      <c r="D417" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>242</v>
+      </c>
+      <c r="B418" t="s">
+        <v>5</v>
+      </c>
+      <c r="C418" t="s">
+        <v>248</v>
+      </c>
+      <c r="D418" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>586</v>
+      </c>
+      <c r="B419" t="s">
+        <v>5</v>
+      </c>
+      <c r="C419" t="s">
+        <v>248</v>
+      </c>
+      <c r="D419" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>199</v>
+      </c>
+      <c r="B420" t="s">
+        <v>5</v>
+      </c>
+      <c r="C420" t="s">
+        <v>248</v>
+      </c>
+      <c r="D420" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>494</v>
+      </c>
+      <c r="B421" t="s">
+        <v>5</v>
+      </c>
+      <c r="C421" t="s">
+        <v>248</v>
+      </c>
+      <c r="D421" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>82</v>
+      </c>
+      <c r="B422" t="s">
+        <v>5</v>
+      </c>
+      <c r="C422" t="s">
+        <v>248</v>
+      </c>
+      <c r="D422" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>306</v>
+      </c>
+      <c r="B423" t="s">
+        <v>5</v>
+      </c>
+      <c r="C423" t="s">
+        <v>248</v>
+      </c>
+      <c r="D423" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>333</v>
+      </c>
+      <c r="B424" t="s">
+        <v>5</v>
+      </c>
+      <c r="C424" t="s">
+        <v>248</v>
+      </c>
+      <c r="D424" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>593</v>
+      </c>
+      <c r="B425" t="s">
+        <v>5</v>
+      </c>
+      <c r="C425" t="s">
+        <v>248</v>
+      </c>
+      <c r="D425" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>265</v>
+      </c>
+      <c r="B426" t="s">
+        <v>5</v>
+      </c>
+      <c r="C426" t="s">
+        <v>248</v>
+      </c>
+      <c r="D426" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>425</v>
+      </c>
+      <c r="B427" t="s">
+        <v>5</v>
+      </c>
+      <c r="C427" t="s">
+        <v>248</v>
+      </c>
+      <c r="D427" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>48</v>
+      </c>
+      <c r="B428" t="s">
+        <v>5</v>
+      </c>
+      <c r="C428" t="s">
+        <v>248</v>
+      </c>
+      <c r="D428" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>242</v>
+      </c>
+      <c r="B429" t="s">
+        <v>5</v>
+      </c>
+      <c r="C429" t="s">
+        <v>248</v>
+      </c>
+      <c r="D429" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>13</v>
+      </c>
+      <c r="B430" t="s">
+        <v>5</v>
+      </c>
+      <c r="C430" t="s">
+        <v>248</v>
+      </c>
+      <c r="D430" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>365</v>
+      </c>
+      <c r="B431" t="s">
+        <v>5</v>
+      </c>
+      <c r="C431" t="s">
+        <v>248</v>
+      </c>
+      <c r="D431" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>25</v>
+      </c>
+      <c r="B432" t="s">
+        <v>5</v>
+      </c>
+      <c r="C432" t="s">
+        <v>248</v>
+      </c>
+      <c r="D432" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>74</v>
+      </c>
+      <c r="B433" t="s">
+        <v>5</v>
+      </c>
+      <c r="C433" t="s">
+        <v>248</v>
+      </c>
+      <c r="D433" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>600</v>
+      </c>
+      <c r="B434" t="s">
+        <v>5</v>
+      </c>
+      <c r="C434" t="s">
+        <v>248</v>
+      </c>
+      <c r="D434" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>601</v>
+      </c>
+      <c r="B435" t="s">
+        <v>5</v>
+      </c>
+      <c r="C435" t="s">
+        <v>248</v>
+      </c>
+      <c r="D435" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>343</v>
+      </c>
+      <c r="B436" t="s">
+        <v>5</v>
+      </c>
+      <c r="C436" t="s">
+        <v>248</v>
+      </c>
+      <c r="D436" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>287</v>
+      </c>
+      <c r="B437" t="s">
+        <v>5</v>
+      </c>
+      <c r="C437" t="s">
+        <v>248</v>
+      </c>
+      <c r="D437" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>27</v>
+      </c>
+      <c r="B438" t="s">
+        <v>5</v>
+      </c>
+      <c r="C438" t="s">
+        <v>248</v>
+      </c>
+      <c r="D438" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>11</v>
+      </c>
+      <c r="B439" t="s">
+        <v>5</v>
+      </c>
+      <c r="C439" t="s">
+        <v>248</v>
+      </c>
+      <c r="D439" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>331</v>
+      </c>
+      <c r="B440" t="s">
+        <v>5</v>
+      </c>
+      <c r="C440" t="s">
+        <v>248</v>
+      </c>
+      <c r="D440" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>425</v>
+      </c>
+      <c r="B441" t="s">
+        <v>5</v>
+      </c>
+      <c r="C441" t="s">
+        <v>248</v>
+      </c>
+      <c r="D441" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>609</v>
+      </c>
+      <c r="B442" t="s">
+        <v>5</v>
+      </c>
+      <c r="C442" t="s">
+        <v>248</v>
+      </c>
+      <c r="D442" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>331</v>
+      </c>
+      <c r="B443" t="s">
+        <v>5</v>
+      </c>
+      <c r="C443" t="s">
+        <v>248</v>
+      </c>
+      <c r="D443" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>343</v>
+      </c>
+      <c r="B444" t="s">
+        <v>5</v>
+      </c>
+      <c r="C444" t="s">
+        <v>248</v>
+      </c>
+      <c r="D444" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>90</v>
+      </c>
+      <c r="B445" t="s">
+        <v>5</v>
+      </c>
+      <c r="C445" t="s">
+        <v>248</v>
+      </c>
+      <c r="D445" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>370</v>
+      </c>
+      <c r="B446" t="s">
+        <v>5</v>
+      </c>
+      <c r="C446" t="s">
+        <v>248</v>
+      </c>
+      <c r="D446" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>85</v>
+      </c>
+      <c r="B447" t="s">
+        <v>5</v>
+      </c>
+      <c r="C447" t="s">
+        <v>248</v>
+      </c>
+      <c r="D447" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>26</v>
+      </c>
+      <c r="B448" t="s">
+        <v>5</v>
+      </c>
+      <c r="C448" t="s">
+        <v>248</v>
+      </c>
+      <c r="D448" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>614</v>
+      </c>
+      <c r="B449" t="s">
+        <v>5</v>
+      </c>
+      <c r="C449" t="s">
+        <v>248</v>
+      </c>
+      <c r="D449" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>616</v>
+      </c>
+      <c r="B450" t="s">
+        <v>5</v>
+      </c>
+      <c r="C450" t="s">
+        <v>248</v>
+      </c>
+      <c r="D450" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>80</v>
+      </c>
+      <c r="B451" t="s">
+        <v>5</v>
+      </c>
+      <c r="C451" t="s">
+        <v>248</v>
+      </c>
+      <c r="D451" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>337</v>
+      </c>
+      <c r="B452" t="s">
+        <v>5</v>
+      </c>
+      <c r="C452" t="s">
+        <v>248</v>
+      </c>
+      <c r="D452" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>479</v>
+      </c>
+      <c r="B453" t="s">
+        <v>5</v>
+      </c>
+      <c r="C453" t="s">
+        <v>248</v>
+      </c>
+      <c r="D453" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>89</v>
+      </c>
+      <c r="B454" t="s">
+        <v>5</v>
+      </c>
+      <c r="C454" t="s">
+        <v>248</v>
+      </c>
+      <c r="D454" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>257</v>
+      </c>
+      <c r="B455" t="s">
+        <v>5</v>
+      </c>
+      <c r="C455" t="s">
+        <v>248</v>
+      </c>
+      <c r="D455" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>257</v>
+      </c>
+      <c r="B456" t="s">
+        <v>5</v>
+      </c>
+      <c r="C456" t="s">
+        <v>248</v>
+      </c>
+      <c r="D456" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>13</v>
+      </c>
+      <c r="B457" t="s">
+        <v>5</v>
+      </c>
+      <c r="C457" t="s">
+        <v>248</v>
+      </c>
+      <c r="D457" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>623</v>
+      </c>
+      <c r="B458" t="s">
+        <v>5</v>
+      </c>
+      <c r="C458" t="s">
+        <v>248</v>
+      </c>
+      <c r="D458" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>461</v>
+      </c>
+      <c r="B459" t="s">
+        <v>5</v>
+      </c>
+      <c r="C459" t="s">
+        <v>248</v>
+      </c>
+      <c r="D459" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>257</v>
+      </c>
+      <c r="B460" t="s">
+        <v>5</v>
+      </c>
+      <c r="C460" t="s">
+        <v>248</v>
+      </c>
+      <c r="D460" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>324</v>
+      </c>
+      <c r="B461" t="s">
+        <v>5</v>
+      </c>
+      <c r="C461" t="s">
+        <v>248</v>
+      </c>
+      <c r="D461" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>628</v>
+      </c>
+      <c r="B462" t="s">
+        <v>5</v>
+      </c>
+      <c r="C462" t="s">
+        <v>248</v>
+      </c>
+      <c r="D462" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>45</v>
+      </c>
+      <c r="B463" t="s">
+        <v>5</v>
+      </c>
+      <c r="C463" t="s">
+        <v>248</v>
+      </c>
+      <c r="D463" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>623</v>
+      </c>
+      <c r="B464" t="s">
+        <v>5</v>
+      </c>
+      <c r="C464" t="s">
+        <v>248</v>
+      </c>
+      <c r="D464" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>257</v>
+      </c>
+      <c r="B465" t="s">
+        <v>5</v>
+      </c>
+      <c r="C465" t="s">
+        <v>248</v>
+      </c>
+      <c r="D465" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>447</v>
+      </c>
+      <c r="B466" t="s">
+        <v>5</v>
+      </c>
+      <c r="C466" t="s">
+        <v>248</v>
+      </c>
+      <c r="D466" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>18</v>
+      </c>
+      <c r="B467" t="s">
+        <v>5</v>
+      </c>
+      <c r="C467" t="s">
+        <v>248</v>
+      </c>
+      <c r="D467" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>634</v>
+      </c>
+      <c r="B468" t="s">
+        <v>5</v>
+      </c>
+      <c r="C468" t="s">
+        <v>248</v>
+      </c>
+      <c r="D468" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>24</v>
+      </c>
+      <c r="B469" t="s">
+        <v>5</v>
+      </c>
+      <c r="C469" t="s">
+        <v>248</v>
+      </c>
+      <c r="D469" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>265</v>
+      </c>
+      <c r="B470" t="s">
+        <v>5</v>
+      </c>
+      <c r="C470" t="s">
+        <v>248</v>
+      </c>
+      <c r="D470" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>14</v>
+      </c>
+      <c r="B471" t="s">
+        <v>5</v>
+      </c>
+      <c r="C471" t="s">
+        <v>248</v>
+      </c>
+      <c r="D471" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>637</v>
+      </c>
+      <c r="B472" t="s">
+        <v>5</v>
+      </c>
+      <c r="C472" t="s">
+        <v>248</v>
+      </c>
+      <c r="D472" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>50</v>
+      </c>
+      <c r="B473" t="s">
+        <v>5</v>
+      </c>
+      <c r="C473" t="s">
+        <v>248</v>
+      </c>
+      <c r="D473" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>287</v>
+      </c>
+      <c r="B474" t="s">
+        <v>5</v>
+      </c>
+      <c r="C474" t="s">
+        <v>248</v>
+      </c>
+      <c r="D474" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>74</v>
+      </c>
+      <c r="B475" t="s">
+        <v>5</v>
+      </c>
+      <c r="C475" t="s">
+        <v>248</v>
+      </c>
+      <c r="D475" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>357</v>
+      </c>
+      <c r="B476" t="s">
+        <v>5</v>
+      </c>
+      <c r="C476" t="s">
+        <v>248</v>
+      </c>
+      <c r="D476" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>92</v>
+      </c>
+      <c r="B477" t="s">
+        <v>5</v>
+      </c>
+      <c r="C477" t="s">
+        <v>248</v>
+      </c>
+      <c r="D477" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>46</v>
+      </c>
+      <c r="B478" t="s">
+        <v>5</v>
+      </c>
+      <c r="C478" t="s">
+        <v>248</v>
+      </c>
+      <c r="D478" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>290</v>
+      </c>
+      <c r="B479" t="s">
+        <v>5</v>
+      </c>
+      <c r="C479" t="s">
+        <v>248</v>
+      </c>
+      <c r="D479" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>347</v>
+      </c>
+      <c r="B480" t="s">
+        <v>5</v>
+      </c>
+      <c r="C480" t="s">
+        <v>248</v>
+      </c>
+      <c r="D480" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>90</v>
+      </c>
+      <c r="B481" t="s">
+        <v>5</v>
+      </c>
+      <c r="C481" t="s">
+        <v>91</v>
+      </c>
+      <c r="D481" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>93</v>
+      </c>
+      <c r="B482" t="s">
+        <v>5</v>
+      </c>
+      <c r="C482" t="s">
+        <v>91</v>
+      </c>
+      <c r="D482" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>36</v>
+      </c>
+      <c r="B483" t="s">
+        <v>3</v>
+      </c>
+      <c r="C483" t="s">
+        <v>4</v>
+      </c>
+      <c r="D483" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>222</v>
+      </c>
+      <c r="B484" t="s">
+        <v>3</v>
+      </c>
+      <c r="C484" t="s">
+        <v>4</v>
+      </c>
+      <c r="D484" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>43</v>
+      </c>
+      <c r="B485" t="s">
+        <v>3</v>
+      </c>
+      <c r="C485" t="s">
+        <v>4</v>
+      </c>
+      <c r="D485" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>226</v>
+      </c>
+      <c r="B486" t="s">
+        <v>3</v>
+      </c>
+      <c r="C486" t="s">
+        <v>4</v>
+      </c>
+      <c r="D486" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>224</v>
+      </c>
+      <c r="B487" t="s">
+        <v>3</v>
+      </c>
+      <c r="C487" t="s">
+        <v>4</v>
+      </c>
+      <c r="D487" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>29</v>
+      </c>
+      <c r="B488" t="s">
+        <v>3</v>
+      </c>
+      <c r="C488" t="s">
+        <v>4</v>
+      </c>
+      <c r="D488" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>225</v>
+      </c>
+      <c r="B489" t="s">
+        <v>3</v>
+      </c>
+      <c r="C489" t="s">
+        <v>4</v>
+      </c>
+      <c r="D489" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>35</v>
+      </c>
+      <c r="B490" t="s">
+        <v>3</v>
+      </c>
+      <c r="C490" t="s">
+        <v>4</v>
+      </c>
+      <c r="D490" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>179</v>
+      </c>
+      <c r="B491" t="s">
+        <v>3</v>
+      </c>
+      <c r="C491" t="s">
+        <v>4</v>
+      </c>
+      <c r="D491" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>177</v>
+      </c>
+      <c r="B492" t="s">
+        <v>3</v>
+      </c>
+      <c r="C492" t="s">
+        <v>4</v>
+      </c>
+      <c r="D492" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>31</v>
+      </c>
+      <c r="B493" t="s">
+        <v>3</v>
+      </c>
+      <c r="C493" t="s">
+        <v>4</v>
+      </c>
+      <c r="D493" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>34</v>
+      </c>
+      <c r="B494" t="s">
+        <v>3</v>
+      </c>
+      <c r="C494" t="s">
+        <v>4</v>
+      </c>
+      <c r="D494" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>40</v>
+      </c>
+      <c r="B495" t="s">
+        <v>3</v>
+      </c>
+      <c r="C495" t="s">
+        <v>4</v>
+      </c>
+      <c r="D495" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>71</v>
+      </c>
+      <c r="B496" t="s">
+        <v>3</v>
+      </c>
+      <c r="C496" t="s">
+        <v>4</v>
+      </c>
+      <c r="D496" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>41</v>
+      </c>
+      <c r="B497" t="s">
+        <v>3</v>
+      </c>
+      <c r="C497" t="s">
+        <v>4</v>
+      </c>
+      <c r="D497" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>37</v>
+      </c>
+      <c r="B498" t="s">
+        <v>3</v>
+      </c>
+      <c r="C498" t="s">
+        <v>4</v>
+      </c>
+      <c r="D498" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>39</v>
+      </c>
+      <c r="B499" t="s">
+        <v>3</v>
+      </c>
+      <c r="C499" t="s">
+        <v>4</v>
+      </c>
+      <c r="D499" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>30</v>
+      </c>
+      <c r="B500" t="s">
+        <v>3</v>
+      </c>
+      <c r="C500" t="s">
+        <v>4</v>
+      </c>
+      <c r="D500" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>72</v>
+      </c>
+      <c r="B501" t="s">
+        <v>3</v>
+      </c>
+      <c r="C501" t="s">
+        <v>4</v>
+      </c>
+      <c r="D501" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>73</v>
+      </c>
+      <c r="B502" t="s">
+        <v>3</v>
+      </c>
+      <c r="C502" t="s">
+        <v>4</v>
+      </c>
+      <c r="D502" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>33</v>
+      </c>
+      <c r="B503" t="s">
+        <v>3</v>
+      </c>
+      <c r="C503" t="s">
+        <v>4</v>
+      </c>
+      <c r="D503" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>42</v>
+      </c>
+      <c r="B504" t="s">
+        <v>3</v>
+      </c>
+      <c r="C504" t="s">
+        <v>4</v>
+      </c>
+      <c r="D504" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>38</v>
+      </c>
+      <c r="B505" t="s">
+        <v>3</v>
+      </c>
+      <c r="C505" t="s">
+        <v>4</v>
+      </c>
+      <c r="D505" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>32</v>
+      </c>
+      <c r="B506" t="s">
+        <v>3</v>
+      </c>
+      <c r="C506" t="s">
+        <v>4</v>
+      </c>
+      <c r="D506" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>180</v>
+      </c>
+      <c r="B507" t="s">
+        <v>3</v>
+      </c>
+      <c r="C507" t="s">
+        <v>4</v>
+      </c>
+      <c r="D507" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>59</v>
+      </c>
+      <c r="B508" t="s">
+        <v>7</v>
+      </c>
+      <c r="C508" t="s">
+        <v>8</v>
+      </c>
+      <c r="D508" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>69</v>
+      </c>
+      <c r="B509" t="s">
+        <v>7</v>
+      </c>
+      <c r="C509" t="s">
+        <v>8</v>
+      </c>
+      <c r="D509" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>97</v>
+      </c>
+      <c r="B510" t="s">
+        <v>7</v>
+      </c>
+      <c r="C510" t="s">
+        <v>8</v>
+      </c>
+      <c r="D510" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>54</v>
+      </c>
+      <c r="B511" t="s">
+        <v>7</v>
+      </c>
+      <c r="C511" t="s">
+        <v>8</v>
+      </c>
+      <c r="D511" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>66</v>
+      </c>
+      <c r="B512" t="s">
+        <v>7</v>
+      </c>
+      <c r="C512" t="s">
+        <v>8</v>
+      </c>
+      <c r="D512" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>65</v>
+      </c>
+      <c r="B513" t="s">
+        <v>7</v>
+      </c>
+      <c r="C513" t="s">
+        <v>8</v>
+      </c>
+      <c r="D513" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>53</v>
+      </c>
+      <c r="B514" t="s">
+        <v>7</v>
+      </c>
+      <c r="C514" t="s">
+        <v>8</v>
+      </c>
+      <c r="D514" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>62</v>
+      </c>
+      <c r="B515" t="s">
+        <v>7</v>
+      </c>
+      <c r="C515" t="s">
+        <v>8</v>
+      </c>
+      <c r="D515" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>52</v>
+      </c>
+      <c r="B516" t="s">
+        <v>7</v>
+      </c>
+      <c r="C516" t="s">
+        <v>8</v>
+      </c>
+      <c r="D516" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>67</v>
+      </c>
+      <c r="B517" t="s">
+        <v>7</v>
+      </c>
+      <c r="C517" t="s">
+        <v>8</v>
+      </c>
+      <c r="D517" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>51</v>
+      </c>
+      <c r="B518" t="s">
+        <v>7</v>
+      </c>
+      <c r="C518" t="s">
+        <v>8</v>
+      </c>
+      <c r="D518" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>61</v>
+      </c>
+      <c r="B519" t="s">
+        <v>7</v>
+      </c>
+      <c r="C519" t="s">
+        <v>8</v>
+      </c>
+      <c r="D519" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>68</v>
+      </c>
+      <c r="B520" t="s">
+        <v>7</v>
+      </c>
+      <c r="C520" t="s">
+        <v>8</v>
+      </c>
+      <c r="D520" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>96</v>
+      </c>
+      <c r="B521" t="s">
+        <v>7</v>
+      </c>
+      <c r="C521" t="s">
+        <v>8</v>
+      </c>
+      <c r="D521" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>70</v>
+      </c>
+      <c r="B522" t="s">
+        <v>7</v>
+      </c>
+      <c r="C522" t="s">
+        <v>8</v>
+      </c>
+      <c r="D522" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>60</v>
+      </c>
+      <c r="B523" t="s">
+        <v>7</v>
+      </c>
+      <c r="C523" t="s">
+        <v>8</v>
+      </c>
+      <c r="D523" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
         <v>55</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B524" t="s">
         <v>7</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C524" t="s">
         <v>8</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D524" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="144" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="320" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="321" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="336" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="337" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="344" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="345" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="346" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="347" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="348" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="349" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="350" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="351" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="353" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="354" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="355" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="356" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="357" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="358" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="359" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="360" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="362" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="363" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="364" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="365" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="366" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="367" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="368" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="369" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="371" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="372" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="373" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="374" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="375" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="376" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="377" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="378" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="380" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="381" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="382" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="383" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="384" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="385" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="386" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="387" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="389" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="390" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="391" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="392" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="393" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="394" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="395" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="396" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="397" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="398" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="399" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="400" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="401" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="402" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="403" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="404" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="405" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="406" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="407" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="408" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="409" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="410" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="411" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="412" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="413" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="414" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="415" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="416" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="417" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="418" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="419" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="420" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="421" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="422" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="423" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="424" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="425" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="426" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="427" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="428" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="429" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="430" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="431" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="432" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="433" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="434" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="435" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="436" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="437" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="438" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="439" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="440" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="441" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="442" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="443" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="444" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="445" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="446" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="447" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="448" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="449" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="450" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="451" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="452" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="453" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="454" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="455" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="456" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="457" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="458" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="459" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="460" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="461" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="462" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="463" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="464" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="465" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="466" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="467" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="468" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="469" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="470" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="471" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="472" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="473" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="474" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="475" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="476" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="477" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="478" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="479" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="480" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="481" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="482" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="483" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="484" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="485" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="486" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="487" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="488" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="489" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="490" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="491" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="492" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="493" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="494" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="495" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="496" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="497" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="498" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="499" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="500" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="501" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="502" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="503" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="504" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="505" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="506" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="507" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="508" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="509" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="510" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="511" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="512" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="513" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="514" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="515" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="516" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="517" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="518" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="519" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="520" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="521" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="522" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="523" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="524" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="525" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="526" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="527" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="528" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="529" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="530" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="531" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="532" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="533" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="534" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="535" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="536" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="537" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="538" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="539" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="540" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="541" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="542" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="543" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="544" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="525" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>64</v>
+      </c>
+      <c r="B525" t="s">
+        <v>7</v>
+      </c>
+      <c r="C525" t="s">
+        <v>8</v>
+      </c>
+      <c r="D525" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>56</v>
+      </c>
+      <c r="B526" t="s">
+        <v>7</v>
+      </c>
+      <c r="C526" t="s">
+        <v>8</v>
+      </c>
+      <c r="D526" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>57</v>
+      </c>
+      <c r="B527" t="s">
+        <v>7</v>
+      </c>
+      <c r="C527" t="s">
+        <v>8</v>
+      </c>
+      <c r="D527" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>227</v>
+      </c>
+      <c r="B528" t="s">
+        <v>7</v>
+      </c>
+      <c r="C528" t="s">
+        <v>8</v>
+      </c>
+      <c r="D528" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>63</v>
+      </c>
+      <c r="B529" t="s">
+        <v>7</v>
+      </c>
+      <c r="C529" t="s">
+        <v>8</v>
+      </c>
+      <c r="D529" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>58</v>
+      </c>
+      <c r="B530" t="s">
+        <v>7</v>
+      </c>
+      <c r="C530" t="s">
+        <v>8</v>
+      </c>
+      <c r="D530" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="532" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="533" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="534" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="535" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="536" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="537" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="538" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="539" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="540" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="541" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="542" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="543" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="544" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="545" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="546" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="547" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3873,14 +10103,10 @@
     <row r="777" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="778" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="779" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="780" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="781" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="782" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="783" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:D143" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A2:A44">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <autoFilter ref="A1:D530" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="A2:A42">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3899,7 +10125,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4084,7 +10310,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/parameter/template.xlsx
+++ b/parameter/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Coding\Project\deploy_scb\parameter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F70241D-CD85-4F9D-931E-EBF4DC6A9A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D04079-D7C5-4706-84D9-63C7152D0BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1860" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -2408,9 +2408,9 @@
   </sheetPr>
   <dimension ref="A1:D774"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C485" sqref="C485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9872,8 +9872,8 @@
   </sheetPr>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>

--- a/parameter/template.xlsx
+++ b/parameter/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Coding\Project\deploy_scb\filename\BACKUP\template\2023-03-18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Coding\Project\deploy_scb\parameter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0294FA01-7F29-41A5-89FD-394C49E0C9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C213F6-443D-420B-A787-A3C7CAE697E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1860" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>LIST</t>
   </si>
@@ -60,34 +60,133 @@
     <t>DEPLOY</t>
   </si>
   <si>
-    <t>PRM_DSF_DAILY</t>
-  </si>
-  <si>
-    <t>RUB_MONTHLY</t>
-  </si>
-  <si>
-    <t>BCM_DSF_Monthly3</t>
-  </si>
-  <si>
-    <t>P1VTPBCM.TVBCM_PAYROLL_PA_ATS_CN</t>
-  </si>
-  <si>
-    <t>P1VTPPRM.TVPRM_ALL_CARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1VEURUB.VRUB_BRR_FINSTMT </t>
-  </si>
-  <si>
-    <t>P1VEUBCM.VBCM_PAYROLL_PA_ATS_CN</t>
-  </si>
-  <si>
-    <t>P1VEUBCM.VBCM_PAYROLL_PA_FWD</t>
-  </si>
-  <si>
-    <t>P1VEUBCM.VBCM_SUMMPYRLL_PA_ATS_CN</t>
-  </si>
-  <si>
-    <t>P1VEUBCM.VBCM_SUMMARYPAYROLL_PA_FWD</t>
+    <t>P1VTXEDW.VEPP_B2B_EVENT_01</t>
+  </si>
+  <si>
+    <t>P1VSGMF.B2MTX_PCOEC_H_1_0</t>
+  </si>
+  <si>
+    <t>p1VSGMF.B2MTX_PCOEC_T_1_0_T1</t>
+  </si>
+  <si>
+    <t>EPP_SRC_MONTHLY</t>
+  </si>
+  <si>
+    <t>LOS_SRC_Daily</t>
+  </si>
+  <si>
+    <t>EDW_ESL_DAILY</t>
+  </si>
+  <si>
+    <t>DMS_DSF_DAILY</t>
+  </si>
+  <si>
+    <t>B2MTX_SRC_Daily</t>
+  </si>
+  <si>
+    <t>SL_DSF_Daily</t>
+  </si>
+  <si>
+    <t>P1VTXEDW.VUL_CCHSSEQ_01</t>
+  </si>
+  <si>
+    <t>P1VEULQ.VLQ_06_GL_PROD_SEGMENT</t>
+  </si>
+  <si>
+    <t>P1VTXEDW.LEAD_QUOTATION_ACCOUNT</t>
+  </si>
+  <si>
+    <t>P1VEUOBM.VOBM_01_ACCRU_GRP_DETAIL_HS</t>
+  </si>
+  <si>
+    <t>P1VTPBIT.TVBI_BI_RC_SUB_LEV</t>
+  </si>
+  <si>
+    <t>P1VEUOBM.VOBM_PLAN_RATE_HS</t>
+  </si>
+  <si>
+    <t>P1VTXEDW.VESL_EDW_AGREEMENT_INFO_ICORE</t>
+  </si>
+  <si>
+    <t>P1VEUDMS.VDMS_ESL_SEC_FEATURE</t>
+  </si>
+  <si>
+    <t>P1VEUCDD.VCDD_PRODUCT</t>
+  </si>
+  <si>
+    <t>P1VTXEDW.FACT_B2MTX_MERCH_TRANS_TEMP_D</t>
+  </si>
+  <si>
+    <t>P1VEUOBM.VOBM_08_LIMIT_INFO_HS</t>
+  </si>
+  <si>
+    <t>P1VEUOBM.VOBM_27_ITEM_ORIG_MAP_HS</t>
+  </si>
+  <si>
+    <t>P1VTPSL.TVSL_OUTSTANDING</t>
+  </si>
+  <si>
+    <t>P1VEUOBM.VOBM_02_BALANCE_INFO_HS</t>
+  </si>
+  <si>
+    <t>P1VTXEDW.VESL_EDW_ACCT_STATS_B2K</t>
+  </si>
+  <si>
+    <t>P1VEUDMS.VDMS_ESL_DAILY_NOTIONAL</t>
+  </si>
+  <si>
+    <t>P1VTXEDW.VESL_EDW_ACCT_STATS_ST3</t>
+  </si>
+  <si>
+    <t>P1VTXEDW.VIM_IMACTM10_ACCOPRODHIST_01</t>
+  </si>
+  <si>
+    <t>P1VTPBIT.TVBI_BI_ORG_SUB_LEV</t>
+  </si>
+  <si>
+    <t>P1VTXEDW.VESL_EDW_ACCT_STATS_IM</t>
+  </si>
+  <si>
+    <t>P1VTTEDW.GN_MT_EVENT_LOG</t>
+  </si>
+  <si>
+    <t>P1VSTEDW.S1_HITCOUNT_1_0</t>
+  </si>
+  <si>
+    <t>P1VTXEDW.VESL_EDW_ACCT_STATS_TR</t>
+  </si>
+  <si>
+    <t>P1VTXEDW.VLOS_PR10_QUOPROFEATUR_01</t>
+  </si>
+  <si>
+    <t>RSK_DSF_Daily</t>
+  </si>
+  <si>
+    <t>LQ_DSF_DAILY</t>
+  </si>
+  <si>
+    <t>BI_DSF_LEAD_Daily</t>
+  </si>
+  <si>
+    <t>OBM_DSF_DAILY_HS</t>
+  </si>
+  <si>
+    <t>BI_DSF_Daily</t>
+  </si>
+  <si>
+    <t>CDD_DSF_Per</t>
+  </si>
+  <si>
+    <t>EDW_ESL_WEEKLY</t>
+  </si>
+  <si>
+    <t>IM_SRC_Daily</t>
+  </si>
+  <si>
+    <t>CHYO_DSF_DAILY</t>
+  </si>
+  <si>
+    <t>S1_SRC_Daily</t>
   </si>
 </sst>
 </file>
@@ -171,13 +270,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1357,11 +1459,11 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1381,137 +1483,263 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="A27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{73062F12-452F-490B-8A18-5A814C29F95A}"/>

--- a/parameter/template.xlsx
+++ b/parameter/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Coding\Project\deploy_scb\parameter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C213F6-443D-420B-A787-A3C7CAE697E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A23B9A-3F59-4358-A1F3-888A392CF2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1860" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>LIST</t>
   </si>
@@ -60,133 +60,16 @@
     <t>DEPLOY</t>
   </si>
   <si>
-    <t>P1VTXEDW.VEPP_B2B_EVENT_01</t>
-  </si>
-  <si>
-    <t>P1VSGMF.B2MTX_PCOEC_H_1_0</t>
-  </si>
-  <si>
-    <t>p1VSGMF.B2MTX_PCOEC_T_1_0_T1</t>
-  </si>
-  <si>
-    <t>EPP_SRC_MONTHLY</t>
-  </si>
-  <si>
-    <t>LOS_SRC_Daily</t>
-  </si>
-  <si>
-    <t>EDW_ESL_DAILY</t>
-  </si>
-  <si>
-    <t>DMS_DSF_DAILY</t>
-  </si>
-  <si>
-    <t>B2MTX_SRC_Daily</t>
-  </si>
-  <si>
-    <t>SL_DSF_Daily</t>
-  </si>
-  <si>
-    <t>P1VTXEDW.VUL_CCHSSEQ_01</t>
-  </si>
-  <si>
-    <t>P1VEULQ.VLQ_06_GL_PROD_SEGMENT</t>
-  </si>
-  <si>
-    <t>P1VTXEDW.LEAD_QUOTATION_ACCOUNT</t>
-  </si>
-  <si>
-    <t>P1VEUOBM.VOBM_01_ACCRU_GRP_DETAIL_HS</t>
-  </si>
-  <si>
-    <t>P1VTPBIT.TVBI_BI_RC_SUB_LEV</t>
-  </si>
-  <si>
-    <t>P1VEUOBM.VOBM_PLAN_RATE_HS</t>
-  </si>
-  <si>
-    <t>P1VTXEDW.VESL_EDW_AGREEMENT_INFO_ICORE</t>
-  </si>
-  <si>
-    <t>P1VEUDMS.VDMS_ESL_SEC_FEATURE</t>
-  </si>
-  <si>
-    <t>P1VEUCDD.VCDD_PRODUCT</t>
-  </si>
-  <si>
-    <t>P1VTXEDW.FACT_B2MTX_MERCH_TRANS_TEMP_D</t>
-  </si>
-  <si>
-    <t>P1VEUOBM.VOBM_08_LIMIT_INFO_HS</t>
-  </si>
-  <si>
-    <t>P1VEUOBM.VOBM_27_ITEM_ORIG_MAP_HS</t>
-  </si>
-  <si>
-    <t>P1VTPSL.TVSL_OUTSTANDING</t>
-  </si>
-  <si>
-    <t>P1VEUOBM.VOBM_02_BALANCE_INFO_HS</t>
-  </si>
-  <si>
-    <t>P1VTXEDW.VESL_EDW_ACCT_STATS_B2K</t>
-  </si>
-  <si>
-    <t>P1VEUDMS.VDMS_ESL_DAILY_NOTIONAL</t>
-  </si>
-  <si>
-    <t>P1VTXEDW.VESL_EDW_ACCT_STATS_ST3</t>
-  </si>
-  <si>
-    <t>P1VTXEDW.VIM_IMACTM10_ACCOPRODHIST_01</t>
-  </si>
-  <si>
-    <t>P1VTPBIT.TVBI_BI_ORG_SUB_LEV</t>
-  </si>
-  <si>
-    <t>P1VTXEDW.VESL_EDW_ACCT_STATS_IM</t>
-  </si>
-  <si>
-    <t>P1VTTEDW.GN_MT_EVENT_LOG</t>
-  </si>
-  <si>
-    <t>P1VSTEDW.S1_HITCOUNT_1_0</t>
-  </si>
-  <si>
-    <t>P1VTXEDW.VESL_EDW_ACCT_STATS_TR</t>
-  </si>
-  <si>
-    <t>P1VTXEDW.VLOS_PR10_QUOPROFEATUR_01</t>
-  </si>
-  <si>
-    <t>RSK_DSF_Daily</t>
-  </si>
-  <si>
     <t>LQ_DSF_DAILY</t>
   </si>
   <si>
-    <t>BI_DSF_LEAD_Daily</t>
+    <t>P1VEULQ.VLQ_01_IM_ST_DAILY</t>
   </si>
   <si>
-    <t>OBM_DSF_DAILY_HS</t>
+    <t>P1VEULQ.VLQ_04_GL_OC_SEGMENT</t>
   </si>
   <si>
-    <t>BI_DSF_Daily</t>
-  </si>
-  <si>
-    <t>CDD_DSF_Per</t>
-  </si>
-  <si>
-    <t>EDW_ESL_WEEKLY</t>
-  </si>
-  <si>
-    <t>IM_SRC_Daily</t>
-  </si>
-  <si>
-    <t>CHYO_DSF_DAILY</t>
-  </si>
-  <si>
-    <t>S1_SRC_Daily</t>
+    <t>P1VEULQ.VLQ_03_GL_RC_SEGMENT</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1346,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1483,219 +1366,123 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
